--- a/quickquizProduct Backlog 04.09.2018.xlsx
+++ b/quickquizProduct Backlog 04.09.2018.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="16215" windowHeight="8925" tabRatio="936" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="16215" windowHeight="8925" tabRatio="936" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ProductBacklog" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="387">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -1187,13 +1187,16 @@
   </si>
   <si>
     <t>testing modules of localhost</t>
+  </si>
+  <si>
+    <t>complete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1724,6 +1727,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1731,10 +1741,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1742,9 +1761,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1754,25 +1771,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1782,8 +1816,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1836,39 +1879,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
@@ -1888,13 +1898,6 @@
     <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1915,24 +1918,12 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2004,7 +1995,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2049,51 +2039,39 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="43159936"/>
-        <c:axId val="43161472"/>
+        <c:axId val="78177024"/>
+        <c:axId val="78178560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="43159936"/>
+        <c:axId val="78177024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="d\-mmm\-yy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2105,23 +2083,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43161472"/>
+        <c:crossAx val="78178560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="43161472"/>
+        <c:axId val="78178560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2133,7 +2108,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43159936"/>
+        <c:crossAx val="78177024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2141,7 +2116,6 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2155,11 +2129,10 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2167,24 +2140,12 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2236,27 +2197,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>177</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>110</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2301,13 +2261,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>177</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>177</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>177</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>177</c:v>
@@ -2321,31 +2281,19 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="44348160"/>
-        <c:axId val="44349696"/>
+        <c:axId val="78704000"/>
+        <c:axId val="78709888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="44348160"/>
+        <c:axId val="78704000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="d\-mmm\-yy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2357,23 +2305,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44349696"/>
+        <c:crossAx val="78709888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="44349696"/>
+        <c:axId val="78709888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2385,7 +2330,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44348160"/>
+        <c:crossAx val="78704000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2393,7 +2338,6 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2407,11 +2351,10 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2419,24 +2362,12 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2508,7 +2439,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2573,31 +2503,19 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="44532480"/>
-        <c:axId val="44534016"/>
+        <c:axId val="78928128"/>
+        <c:axId val="78938112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="44532480"/>
+        <c:axId val="78928128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="d\-mmm\-yy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2609,23 +2527,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44534016"/>
+        <c:crossAx val="78938112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="44534016"/>
+        <c:axId val="78938112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2637,15 +2552,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44532480"/>
+        <c:crossAx val="78928128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2659,11 +2572,10 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2671,24 +2583,12 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2760,7 +2660,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2825,31 +2724,19 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="61663488"/>
-        <c:axId val="61665280"/>
+        <c:axId val="79070336"/>
+        <c:axId val="79071872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="61663488"/>
+        <c:axId val="79070336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="d\-mmm\-yy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2861,23 +2748,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61665280"/>
+        <c:crossAx val="79071872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="61665280"/>
+        <c:axId val="79071872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2889,14 +2773,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61663488"/>
+        <c:crossAx val="79070336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2910,11 +2793,10 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3517,7 +3399,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3552,7 +3433,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3728,7 +3608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3738,7 +3618,7 @@
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" customWidth="1"/>
@@ -3751,52 +3631,52 @@
     <col min="9" max="9" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="59" t="s">
+    <row r="3" spans="1:9" ht="25.5">
+      <c r="A3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75">
       <c r="D4" s="52" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60" t="s">
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="63" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
+    <row r="6" spans="1:9">
+      <c r="A6" s="63"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="15" t="s">
         <v>8</v>
       </c>
@@ -3806,12 +3686,12 @@
       <c r="E6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="16">
         <v>1</v>
       </c>
@@ -3832,7 +3712,7 @@
       <c r="H7" s="17"/>
       <c r="I7" s="16"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="16">
         <v>1</v>
       </c>
@@ -3853,7 +3733,7 @@
       <c r="H8" s="17"/>
       <c r="I8" s="16"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="16">
         <v>1</v>
       </c>
@@ -3874,7 +3754,7 @@
       <c r="H9" s="17"/>
       <c r="I9" s="16"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="16">
         <v>1</v>
       </c>
@@ -3895,7 +3775,7 @@
       <c r="H10" s="17"/>
       <c r="I10" s="16"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="16">
         <v>1</v>
       </c>
@@ -3916,7 +3796,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="16"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="16"/>
       <c r="B12" s="16" t="s">
         <v>16</v>
@@ -3935,7 +3815,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="16"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="16"/>
       <c r="B13" s="16" t="s">
         <v>219</v>
@@ -3954,7 +3834,7 @@
       <c r="H13" s="17"/>
       <c r="I13" s="16"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="16"/>
       <c r="B14" s="16" t="s">
         <v>220</v>
@@ -3973,7 +3853,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="16"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="16"/>
       <c r="B15" s="16" t="s">
         <v>221</v>
@@ -3992,7 +3872,7 @@
       <c r="H15" s="17"/>
       <c r="I15" s="16"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="16"/>
       <c r="B16" s="16" t="s">
         <v>222</v>
@@ -4011,7 +3891,7 @@
       <c r="H16" s="17"/>
       <c r="I16" s="16"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="16"/>
       <c r="B17" s="16" t="s">
         <v>289</v>
@@ -4030,7 +3910,7 @@
       <c r="H17" s="17"/>
       <c r="I17" s="16"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="16"/>
       <c r="B18" s="16" t="s">
         <v>290</v>
@@ -4049,7 +3929,7 @@
       <c r="H18" s="17"/>
       <c r="I18" s="16"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="16"/>
       <c r="B19" s="16" t="s">
         <v>223</v>
@@ -4068,7 +3948,7 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="16"/>
       <c r="B20" s="16" t="s">
         <v>224</v>
@@ -4087,7 +3967,7 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="16"/>
       <c r="B21" s="16" t="s">
         <v>225</v>
@@ -4106,7 +3986,7 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="16"/>
       <c r="B22" s="16" t="s">
         <v>226</v>
@@ -4125,7 +4005,7 @@
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="16"/>
       <c r="B23" s="16" t="s">
         <v>291</v>
@@ -4144,7 +4024,7 @@
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="16"/>
       <c r="B24" s="16" t="s">
         <v>292</v>
@@ -4163,7 +4043,7 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="16"/>
       <c r="B25" s="56" t="s">
         <v>293</v>
@@ -4182,7 +4062,7 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="16"/>
       <c r="B26" s="16" t="s">
         <v>294</v>
@@ -4201,7 +4081,7 @@
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="16"/>
       <c r="B27" s="16" t="s">
         <v>295</v>
@@ -4220,7 +4100,7 @@
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="16"/>
       <c r="B28" s="16" t="s">
         <v>296</v>
@@ -4239,7 +4119,7 @@
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="16"/>
       <c r="B29" s="16" t="s">
         <v>297</v>
@@ -4258,7 +4138,7 @@
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="16"/>
       <c r="B30" s="16" t="s">
         <v>298</v>
@@ -4277,7 +4157,7 @@
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="16"/>
       <c r="B31" s="16" t="s">
         <v>299</v>
@@ -4296,7 +4176,7 @@
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="16"/>
       <c r="B32" s="16" t="s">
         <v>300</v>
@@ -4315,7 +4195,7 @@
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="16"/>
       <c r="B33" s="16" t="s">
         <v>301</v>
@@ -4334,7 +4214,7 @@
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="16"/>
       <c r="B34" s="16" t="s">
         <v>302</v>
@@ -4353,7 +4233,7 @@
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="16"/>
       <c r="B35" s="16" t="s">
         <v>303</v>
@@ -4372,7 +4252,7 @@
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="16"/>
       <c r="B36" s="16" t="s">
         <v>304</v>
@@ -4391,7 +4271,7 @@
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="16"/>
       <c r="B37" s="16" t="s">
         <v>305</v>
@@ -4410,7 +4290,7 @@
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="16"/>
       <c r="B38" s="16" t="s">
         <v>306</v>
@@ -4429,7 +4309,7 @@
       <c r="H38" s="16"/>
       <c r="I38" s="16"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="16"/>
       <c r="B39" s="16" t="s">
         <v>307</v>
@@ -4448,7 +4328,7 @@
       <c r="H39" s="16"/>
       <c r="I39" s="16"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="16"/>
       <c r="B40" s="16" t="s">
         <v>308</v>
@@ -4467,7 +4347,7 @@
       <c r="H40" s="16"/>
       <c r="I40" s="16"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="16"/>
       <c r="B41" s="16" t="s">
         <v>309</v>
@@ -4486,7 +4366,7 @@
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="16"/>
       <c r="B42" s="16" t="s">
         <v>310</v>
@@ -4505,7 +4385,7 @@
       <c r="H42" s="16"/>
       <c r="I42" s="16"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="16"/>
       <c r="B43" s="16" t="s">
         <v>311</v>
@@ -4524,7 +4404,7 @@
       <c r="H43" s="16"/>
       <c r="I43" s="16"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="16"/>
       <c r="B44" s="16" t="s">
         <v>312</v>
@@ -4543,7 +4423,7 @@
       <c r="H44" s="16"/>
       <c r="I44" s="16"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="16"/>
       <c r="B45" s="16" t="s">
         <v>313</v>
@@ -4562,7 +4442,7 @@
       <c r="H45" s="16"/>
       <c r="I45" s="16"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="16"/>
       <c r="B46" s="16" t="s">
         <v>314</v>
@@ -4581,7 +4461,7 @@
       <c r="H46" s="16"/>
       <c r="I46" s="16"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="16"/>
       <c r="B47" s="16" t="s">
         <v>315</v>
@@ -4600,7 +4480,7 @@
       <c r="H47" s="16"/>
       <c r="I47" s="16"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="16"/>
       <c r="B48" s="16" t="s">
         <v>316</v>
@@ -4619,7 +4499,7 @@
       <c r="H48" s="16"/>
       <c r="I48" s="16"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="16"/>
       <c r="B49" s="16" t="s">
         <v>317</v>
@@ -4638,7 +4518,7 @@
       <c r="H49" s="16"/>
       <c r="I49" s="16"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="16"/>
       <c r="B50" s="16" t="s">
         <v>318</v>
@@ -4657,7 +4537,7 @@
       <c r="H50" s="16"/>
       <c r="I50" s="16"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="16"/>
       <c r="B51" s="16" t="s">
         <v>319</v>
@@ -4700,14 +4580,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T24"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -4717,26 +4597,26 @@
     <col min="6" max="6" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" s="21"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" s="21"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+    <row r="5" spans="1:20">
+      <c r="A5" s="117" t="s">
         <v>198</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="21"/>
     </row>
-    <row r="7" spans="1:20" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="42" customHeight="1">
       <c r="A7" s="42" t="s">
         <v>138</v>
       </c>
@@ -4747,7 +4627,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" s="41">
         <v>43389</v>
       </c>
@@ -4757,12 +4637,12 @@
       <c r="C8" s="48">
         <v>120</v>
       </c>
-      <c r="E8" s="108" t="s">
+      <c r="E8" s="111" t="s">
         <v>139</v>
       </c>
-      <c r="F8" s="108"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F8" s="111"/>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="41">
         <v>43391</v>
       </c>
@@ -4772,10 +4652,10 @@
       <c r="C9" s="48">
         <v>120</v>
       </c>
-      <c r="E9" s="108"/>
-      <c r="F9" s="108"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="41">
         <v>43393</v>
       </c>
@@ -4785,10 +4665,10 @@
       <c r="C10" s="48">
         <v>120</v>
       </c>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="41">
         <v>43394</v>
       </c>
@@ -4798,10 +4678,10 @@
       <c r="C11" s="48">
         <v>120</v>
       </c>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="41">
         <v>43395</v>
       </c>
@@ -4811,10 +4691,10 @@
       <c r="C12" s="48">
         <v>120</v>
       </c>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="41">
         <v>43396</v>
       </c>
@@ -4824,56 +4704,56 @@
       <c r="C13" s="48">
         <v>120</v>
       </c>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="41"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
       <c r="T14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="45"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="46"/>
-      <c r="I20" s="109" t="s">
+      <c r="I20" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="J20" s="109"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="109"/>
-      <c r="M20" s="109"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J20" s="112"/>
+      <c r="K20" s="112"/>
+      <c r="L20" s="112"/>
+      <c r="M20" s="112"/>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="45"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="46"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="45"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="46"/>
     </row>
   </sheetData>
@@ -4889,7 +4769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet12">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4899,7 +4779,7 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -4910,18 +4790,18 @@
     <col min="7" max="7" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:7" ht="25.5">
+      <c r="A1" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-    </row>
-    <row r="3" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+    </row>
+    <row r="3" spans="1:7" ht="57" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4944,7 +4824,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -4953,326 +4833,326 @@
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="71" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="76" t="s">
         <v>193</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="69"/>
-      <c r="B6" s="111"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="78"/>
+      <c r="B6" s="114"/>
       <c r="C6" s="20"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="11"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="69"/>
-      <c r="B7" s="112"/>
+    <row r="7" spans="1:7">
+      <c r="A7" s="78"/>
+      <c r="B7" s="115"/>
       <c r="C7" s="20"/>
       <c r="D7" s="14"/>
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="69"/>
-      <c r="B8" s="113"/>
+    <row r="8" spans="1:7">
+      <c r="A8" s="78"/>
+      <c r="B8" s="116"/>
       <c r="C8" s="20"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="11"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="69"/>
-      <c r="B9" s="61"/>
+    <row r="9" spans="1:7">
+      <c r="A9" s="78"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="20"/>
       <c r="D9" s="8"/>
       <c r="E9" s="10"/>
       <c r="F9" s="11"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="69"/>
-      <c r="B10" s="62"/>
+    <row r="10" spans="1:7">
+      <c r="A10" s="78"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="20"/>
       <c r="D10" s="8"/>
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="69"/>
-      <c r="B11" s="62"/>
+    <row r="11" spans="1:7">
+      <c r="A11" s="78"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="20"/>
       <c r="D11" s="8"/>
       <c r="E11" s="10"/>
       <c r="F11" s="11"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="69"/>
-      <c r="B12" s="62"/>
+    <row r="12" spans="1:7">
+      <c r="A12" s="78"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="20"/>
       <c r="D12" s="8"/>
       <c r="E12" s="10"/>
       <c r="F12" s="11"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="69"/>
-      <c r="B13" s="62"/>
+    <row r="13" spans="1:7">
+      <c r="A13" s="78"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="20"/>
       <c r="D13" s="8"/>
       <c r="E13" s="10"/>
       <c r="F13" s="11"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="69"/>
-      <c r="B14" s="63"/>
+    <row r="14" spans="1:7">
+      <c r="A14" s="78"/>
+      <c r="B14" s="69"/>
       <c r="C14" s="20"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="11"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="69"/>
-      <c r="B15" s="64"/>
+    <row r="15" spans="1:7">
+      <c r="A15" s="78"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="20"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="11"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="69"/>
-      <c r="B16" s="64"/>
+    <row r="16" spans="1:7">
+      <c r="A16" s="78"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="20"/>
       <c r="D16" s="12"/>
       <c r="E16" s="10"/>
       <c r="F16" s="11"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
-      <c r="B17" s="65"/>
+    <row r="17" spans="1:7">
+      <c r="A17" s="78"/>
+      <c r="B17" s="77"/>
       <c r="C17" s="20"/>
       <c r="D17" s="8"/>
       <c r="E17" s="10"/>
       <c r="F17" s="11"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
-      <c r="B18" s="61"/>
+    <row r="18" spans="1:7">
+      <c r="A18" s="78"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="20"/>
       <c r="D18" s="8"/>
       <c r="E18" s="10"/>
       <c r="F18" s="11"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="69"/>
-      <c r="B19" s="62"/>
+    <row r="19" spans="1:7">
+      <c r="A19" s="78"/>
+      <c r="B19" s="67"/>
       <c r="C19" s="20"/>
       <c r="D19" s="8"/>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="69"/>
-      <c r="B20" s="62"/>
+    <row r="20" spans="1:7">
+      <c r="A20" s="78"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="20"/>
       <c r="D20" s="8"/>
       <c r="E20" s="10"/>
       <c r="F20" s="11"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
-      <c r="B21" s="62"/>
+    <row r="21" spans="1:7">
+      <c r="A21" s="78"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="20"/>
       <c r="D21" s="8"/>
       <c r="E21" s="10"/>
       <c r="F21" s="11"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="69"/>
-      <c r="B22" s="62"/>
+    <row r="22" spans="1:7">
+      <c r="A22" s="78"/>
+      <c r="B22" s="67"/>
       <c r="C22" s="20"/>
       <c r="D22" s="8"/>
       <c r="E22" s="10"/>
       <c r="F22" s="11"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="69"/>
-      <c r="B23" s="63"/>
+    <row r="23" spans="1:7">
+      <c r="A23" s="78"/>
+      <c r="B23" s="69"/>
       <c r="C23" s="20"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="69"/>
-      <c r="B24" s="64"/>
+    <row r="24" spans="1:7">
+      <c r="A24" s="78"/>
+      <c r="B24" s="70"/>
       <c r="C24" s="20"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="69"/>
-      <c r="B25" s="64"/>
+    <row r="25" spans="1:7">
+      <c r="A25" s="78"/>
+      <c r="B25" s="70"/>
       <c r="C25" s="20"/>
       <c r="D25" s="12"/>
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="69"/>
-      <c r="B26" s="65"/>
+    <row r="26" spans="1:7">
+      <c r="A26" s="78"/>
+      <c r="B26" s="77"/>
       <c r="C26" s="20"/>
       <c r="D26" s="8"/>
       <c r="E26" s="10"/>
       <c r="F26" s="11"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="69"/>
-      <c r="B27" s="61"/>
+    <row r="27" spans="1:7">
+      <c r="A27" s="78"/>
+      <c r="B27" s="66"/>
       <c r="C27" s="20"/>
       <c r="D27" s="8"/>
       <c r="E27" s="10"/>
       <c r="F27" s="11"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="69"/>
-      <c r="B28" s="62"/>
+    <row r="28" spans="1:7">
+      <c r="A28" s="78"/>
+      <c r="B28" s="67"/>
       <c r="C28" s="20"/>
       <c r="D28" s="8"/>
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="69"/>
-      <c r="B29" s="62"/>
+    <row r="29" spans="1:7">
+      <c r="A29" s="78"/>
+      <c r="B29" s="67"/>
       <c r="C29" s="20"/>
       <c r="D29" s="8"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="69"/>
-      <c r="B30" s="62"/>
+    <row r="30" spans="1:7">
+      <c r="A30" s="78"/>
+      <c r="B30" s="67"/>
       <c r="C30" s="20"/>
       <c r="D30" s="8"/>
       <c r="E30" s="10"/>
       <c r="F30" s="11"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="69"/>
-      <c r="B31" s="62"/>
+    <row r="31" spans="1:7">
+      <c r="A31" s="78"/>
+      <c r="B31" s="67"/>
       <c r="C31" s="20"/>
       <c r="D31" s="8"/>
       <c r="E31" s="10"/>
       <c r="F31" s="11"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="69"/>
-      <c r="B32" s="61"/>
+    <row r="32" spans="1:7">
+      <c r="A32" s="78"/>
+      <c r="B32" s="66"/>
       <c r="C32" s="20"/>
       <c r="D32" s="8"/>
       <c r="E32" s="10"/>
       <c r="F32" s="11"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="69"/>
-      <c r="B33" s="62"/>
+    <row r="33" spans="1:7">
+      <c r="A33" s="78"/>
+      <c r="B33" s="67"/>
       <c r="C33" s="20"/>
       <c r="D33" s="8"/>
       <c r="E33" s="10"/>
       <c r="F33" s="11"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="69"/>
-      <c r="B34" s="62"/>
+    <row r="34" spans="1:7">
+      <c r="A34" s="78"/>
+      <c r="B34" s="67"/>
       <c r="C34" s="20"/>
       <c r="D34" s="8"/>
       <c r="E34" s="10"/>
       <c r="F34" s="11"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="69"/>
-      <c r="B35" s="62"/>
+    <row r="35" spans="1:7">
+      <c r="A35" s="78"/>
+      <c r="B35" s="67"/>
       <c r="C35" s="20"/>
       <c r="D35" s="8"/>
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="69"/>
-      <c r="B36" s="62"/>
+    <row r="36" spans="1:7">
+      <c r="A36" s="78"/>
+      <c r="B36" s="67"/>
       <c r="C36" s="20"/>
       <c r="D36" s="8"/>
       <c r="E36" s="10"/>
       <c r="F36" s="11"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="69"/>
-      <c r="B37" s="63"/>
+    <row r="37" spans="1:7">
+      <c r="A37" s="78"/>
+      <c r="B37" s="69"/>
       <c r="C37" s="20"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="11"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="69"/>
-      <c r="B38" s="64"/>
+    <row r="38" spans="1:7">
+      <c r="A38" s="78"/>
+      <c r="B38" s="70"/>
       <c r="C38" s="20"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="11"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="69"/>
-      <c r="B39" s="64"/>
+    <row r="39" spans="1:7">
+      <c r="A39" s="78"/>
+      <c r="B39" s="70"/>
       <c r="C39" s="20"/>
       <c r="D39" s="12"/>
       <c r="E39" s="10"/>
       <c r="F39" s="11"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="69"/>
-      <c r="B40" s="65"/>
+    <row r="40" spans="1:7">
+      <c r="A40" s="78"/>
+      <c r="B40" s="77"/>
       <c r="C40" s="20"/>
       <c r="D40" s="8"/>
       <c r="E40" s="10"/>
@@ -5288,24 +5168,24 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="18">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="B27:B31"/>
     <mergeCell ref="A32:A36"/>
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="A37:A40"/>
     <mergeCell ref="B37:B40"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
@@ -5313,7 +5193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:M56"/>
   <sheetViews>
@@ -5321,61 +5201,61 @@
       <selection activeCell="G5" sqref="G5:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="94" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="82"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="86"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="88"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="96"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="99"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="102"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="22" t="s">
         <v>142</v>
       </c>
@@ -5391,18 +5271,18 @@
       <c r="E4" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="89" t="s">
+      <c r="F4" s="103" t="s">
         <v>146</v>
       </c>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="90"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="104"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="24"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -5419,26 +5299,26 @@
       <c r="L5" s="26"/>
       <c r="M5" s="28"/>
     </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="91" t="s">
+    <row r="6" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A6" s="105" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="93"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="94"/>
-      <c r="B7" s="97"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="107"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="108"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
       <c r="E7" s="1"/>
@@ -5451,9 +5331,9 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="95"/>
-      <c r="B8" s="97"/>
+    <row r="8" spans="1:13">
+      <c r="A8" s="109"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
       <c r="E8" s="1"/>
@@ -5466,9 +5346,9 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="95"/>
-      <c r="B9" s="97"/>
+    <row r="9" spans="1:13">
+      <c r="A9" s="109"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" s="1"/>
@@ -5481,9 +5361,9 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="96"/>
-      <c r="B10" s="97"/>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A10" s="110"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
       <c r="E10" s="1"/>
@@ -5496,9 +5376,9 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="76"/>
-      <c r="B11" s="79"/>
+    <row r="11" spans="1:13">
+      <c r="A11" s="87"/>
+      <c r="B11" s="86"/>
       <c r="C11" s="35"/>
       <c r="D11" s="29"/>
       <c r="E11" s="1"/>
@@ -5511,9 +5391,9 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="77"/>
-      <c r="B12" s="79"/>
+    <row r="12" spans="1:13">
+      <c r="A12" s="88"/>
+      <c r="B12" s="86"/>
       <c r="C12" s="35"/>
       <c r="D12" s="29"/>
       <c r="E12" s="1"/>
@@ -5526,9 +5406,9 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="77"/>
-      <c r="B13" s="79"/>
+    <row r="13" spans="1:13">
+      <c r="A13" s="88"/>
+      <c r="B13" s="86"/>
       <c r="C13" s="35"/>
       <c r="D13" s="29"/>
       <c r="E13" s="1"/>
@@ -5541,9 +5421,9 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="78"/>
-      <c r="B14" s="79"/>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A14" s="89"/>
+      <c r="B14" s="86"/>
       <c r="C14" s="35"/>
       <c r="D14" s="29"/>
       <c r="E14" s="1"/>
@@ -5556,9 +5436,9 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="98"/>
-      <c r="B15" s="79"/>
+    <row r="15" spans="1:13">
+      <c r="A15" s="93"/>
+      <c r="B15" s="86"/>
       <c r="C15" s="35"/>
       <c r="D15" s="29"/>
       <c r="E15" s="1"/>
@@ -5571,9 +5451,9 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="77"/>
-      <c r="B16" s="79"/>
+    <row r="16" spans="1:13">
+      <c r="A16" s="88"/>
+      <c r="B16" s="86"/>
       <c r="C16" s="35"/>
       <c r="D16" s="29"/>
       <c r="E16" s="1"/>
@@ -5586,9 +5466,9 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="77"/>
-      <c r="B17" s="79"/>
+    <row r="17" spans="1:13">
+      <c r="A17" s="88"/>
+      <c r="B17" s="86"/>
       <c r="C17" s="35"/>
       <c r="D17" s="29"/>
       <c r="E17" s="1"/>
@@ -5601,9 +5481,9 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="78"/>
-      <c r="B18" s="79"/>
+    <row r="18" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A18" s="89"/>
+      <c r="B18" s="86"/>
       <c r="C18" s="35"/>
       <c r="D18" s="29"/>
       <c r="E18" s="1"/>
@@ -5616,9 +5496,9 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="76"/>
-      <c r="B19" s="79"/>
+    <row r="19" spans="1:13">
+      <c r="A19" s="87"/>
+      <c r="B19" s="86"/>
       <c r="C19" s="35"/>
       <c r="D19" s="29"/>
       <c r="E19" s="1"/>
@@ -5631,9 +5511,9 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="77"/>
-      <c r="B20" s="79"/>
+    <row r="20" spans="1:13">
+      <c r="A20" s="88"/>
+      <c r="B20" s="86"/>
       <c r="C20" s="35"/>
       <c r="D20" s="29"/>
       <c r="E20" s="1"/>
@@ -5646,9 +5526,9 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="77"/>
-      <c r="B21" s="79"/>
+    <row r="21" spans="1:13">
+      <c r="A21" s="88"/>
+      <c r="B21" s="86"/>
       <c r="C21" s="35"/>
       <c r="D21" s="29"/>
       <c r="E21" s="1"/>
@@ -5661,9 +5541,9 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="78"/>
-      <c r="B22" s="79"/>
+    <row r="22" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A22" s="89"/>
+      <c r="B22" s="86"/>
       <c r="C22" s="35"/>
       <c r="D22" s="29"/>
       <c r="E22" s="1"/>
@@ -5676,9 +5556,9 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="99"/>
-      <c r="B23" s="79"/>
+    <row r="23" spans="1:13">
+      <c r="A23" s="79"/>
+      <c r="B23" s="86"/>
       <c r="C23" s="35"/>
       <c r="D23" s="29"/>
       <c r="E23" s="1"/>
@@ -5691,9 +5571,9 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="100"/>
-      <c r="B24" s="79"/>
+    <row r="24" spans="1:13">
+      <c r="A24" s="80"/>
+      <c r="B24" s="86"/>
       <c r="C24" s="35"/>
       <c r="D24" s="29"/>
       <c r="E24" s="1"/>
@@ -5706,9 +5586,9 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="100"/>
-      <c r="B25" s="79"/>
+    <row r="25" spans="1:13">
+      <c r="A25" s="80"/>
+      <c r="B25" s="86"/>
       <c r="C25" s="35"/>
       <c r="D25" s="29"/>
       <c r="E25" s="1"/>
@@ -5721,9 +5601,9 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="101"/>
-      <c r="B26" s="79"/>
+    <row r="26" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A26" s="81"/>
+      <c r="B26" s="86"/>
       <c r="C26" s="35"/>
       <c r="D26" s="29"/>
       <c r="E26" s="1"/>
@@ -5736,9 +5616,9 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="99"/>
-      <c r="B27" s="79"/>
+    <row r="27" spans="1:13">
+      <c r="A27" s="79"/>
+      <c r="B27" s="86"/>
       <c r="C27" s="35"/>
       <c r="D27" s="29"/>
       <c r="E27" s="1"/>
@@ -5751,9 +5631,9 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="100"/>
-      <c r="B28" s="79"/>
+    <row r="28" spans="1:13">
+      <c r="A28" s="80"/>
+      <c r="B28" s="86"/>
       <c r="C28" s="35"/>
       <c r="D28" s="29"/>
       <c r="E28" s="1"/>
@@ -5766,9 +5646,9 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="100"/>
-      <c r="B29" s="79"/>
+    <row r="29" spans="1:13">
+      <c r="A29" s="80"/>
+      <c r="B29" s="86"/>
       <c r="C29" s="35"/>
       <c r="D29" s="29"/>
       <c r="E29" s="1"/>
@@ -5781,9 +5661,9 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="101"/>
-      <c r="B30" s="79"/>
+    <row r="30" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A30" s="81"/>
+      <c r="B30" s="86"/>
       <c r="C30" s="35"/>
       <c r="D30" s="29"/>
       <c r="E30" s="1"/>
@@ -5796,9 +5676,9 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="76"/>
-      <c r="B31" s="105"/>
+    <row r="31" spans="1:13">
+      <c r="A31" s="87"/>
+      <c r="B31" s="90"/>
       <c r="C31" s="35"/>
       <c r="D31" s="29"/>
       <c r="E31" s="1"/>
@@ -5811,9 +5691,9 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="77"/>
-      <c r="B32" s="106"/>
+    <row r="32" spans="1:13">
+      <c r="A32" s="88"/>
+      <c r="B32" s="91"/>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
       <c r="E32" s="1"/>
@@ -5826,9 +5706,9 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="77"/>
-      <c r="B33" s="106"/>
+    <row r="33" spans="1:13">
+      <c r="A33" s="88"/>
+      <c r="B33" s="91"/>
       <c r="C33" s="35"/>
       <c r="D33" s="29"/>
       <c r="E33" s="1"/>
@@ -5841,9 +5721,9 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="78"/>
-      <c r="B34" s="107"/>
+    <row r="34" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A34" s="89"/>
+      <c r="B34" s="92"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
       <c r="E34" s="1"/>
@@ -5856,9 +5736,9 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="99"/>
-      <c r="B35" s="79"/>
+    <row r="35" spans="1:13">
+      <c r="A35" s="79"/>
+      <c r="B35" s="86"/>
       <c r="C35" s="35"/>
       <c r="D35" s="29"/>
       <c r="E35" s="1"/>
@@ -5871,9 +5751,9 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="100"/>
-      <c r="B36" s="79"/>
+    <row r="36" spans="1:13">
+      <c r="A36" s="80"/>
+      <c r="B36" s="86"/>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
       <c r="E36" s="1"/>
@@ -5886,9 +5766,9 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="100"/>
-      <c r="B37" s="79"/>
+    <row r="37" spans="1:13">
+      <c r="A37" s="80"/>
+      <c r="B37" s="86"/>
       <c r="C37" s="35"/>
       <c r="D37" s="29"/>
       <c r="E37" s="1"/>
@@ -5901,9 +5781,9 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="101"/>
-      <c r="B38" s="79"/>
+    <row r="38" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A38" s="81"/>
+      <c r="B38" s="86"/>
       <c r="C38" s="35"/>
       <c r="D38" s="29"/>
       <c r="E38" s="1"/>
@@ -5916,9 +5796,9 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="99"/>
-      <c r="B39" s="97"/>
+    <row r="39" spans="1:13">
+      <c r="A39" s="79"/>
+      <c r="B39" s="82"/>
       <c r="C39" s="35"/>
       <c r="D39" s="29"/>
       <c r="E39" s="1"/>
@@ -5931,9 +5811,9 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="100"/>
-      <c r="B40" s="97"/>
+    <row r="40" spans="1:13">
+      <c r="A40" s="80"/>
+      <c r="B40" s="82"/>
       <c r="C40" s="35"/>
       <c r="D40" s="29"/>
       <c r="E40" s="1"/>
@@ -5946,9 +5826,9 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="100"/>
-      <c r="B41" s="97"/>
+    <row r="41" spans="1:13">
+      <c r="A41" s="80"/>
+      <c r="B41" s="82"/>
       <c r="C41" s="35"/>
       <c r="D41" s="29"/>
       <c r="E41" s="1"/>
@@ -5961,9 +5841,9 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="101"/>
-      <c r="B42" s="97"/>
+    <row r="42" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A42" s="81"/>
+      <c r="B42" s="82"/>
       <c r="C42" s="29"/>
       <c r="D42" s="29"/>
       <c r="E42" s="1"/>
@@ -5976,9 +5856,9 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="97"/>
-      <c r="B43" s="102"/>
+    <row r="43" spans="1:13">
+      <c r="A43" s="82"/>
+      <c r="B43" s="83"/>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
       <c r="E43" s="1"/>
@@ -5991,9 +5871,9 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="97"/>
-      <c r="B44" s="103"/>
+    <row r="44" spans="1:13">
+      <c r="A44" s="82"/>
+      <c r="B44" s="84"/>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
       <c r="E44" s="1"/>
@@ -6006,9 +5886,9 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="97"/>
-      <c r="B45" s="103"/>
+    <row r="45" spans="1:13">
+      <c r="A45" s="82"/>
+      <c r="B45" s="84"/>
       <c r="C45" s="29"/>
       <c r="D45" s="29"/>
       <c r="E45" s="1"/>
@@ -6021,9 +5901,9 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="97"/>
-      <c r="B46" s="104"/>
+    <row r="46" spans="1:13">
+      <c r="A46" s="82"/>
+      <c r="B46" s="85"/>
       <c r="C46" s="29"/>
       <c r="D46" s="29"/>
       <c r="E46" s="1"/>
@@ -6036,11 +5916,11 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="15.75">
       <c r="B47" s="39"/>
       <c r="C47" s="39"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13">
       <c r="B48" s="40" t="s">
         <v>149</v>
       </c>
@@ -6048,7 +5928,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3">
       <c r="B49" s="40" t="s">
         <v>150</v>
       </c>
@@ -6056,7 +5936,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3">
       <c r="B50" s="40" t="s">
         <v>151</v>
       </c>
@@ -6064,7 +5944,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3">
       <c r="B51" s="40" t="s">
         <v>152</v>
       </c>
@@ -6072,25 +5952,25 @@
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" ht="15.75">
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
     </row>
-    <row r="53" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" ht="15.75">
       <c r="B53" s="40" t="s">
         <v>184</v>
       </c>
       <c r="C53" s="39"/>
     </row>
-    <row r="54" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" ht="15.75">
       <c r="B54" s="39"/>
       <c r="C54" s="39"/>
     </row>
-    <row r="55" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" ht="15.75">
       <c r="B55" s="40"/>
       <c r="C55" s="39"/>
     </row>
-    <row r="56" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" ht="15.75">
       <c r="B56" s="40" t="s">
         <v>185</v>
       </c>
@@ -6104,6 +5984,19 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="23">
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A1:M3"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="B39:B42"/>
     <mergeCell ref="A43:A46"/>
@@ -6114,33 +6007,20 @@
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="A1:M3"/>
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="A6:M6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -6150,22 +6030,22 @@
     <col min="6" max="6" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" s="21"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" s="21"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" s="21"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6" s="21"/>
     </row>
-    <row r="7" spans="1:20" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="42" customHeight="1">
       <c r="A7" s="42" t="s">
         <v>138</v>
       </c>
@@ -6176,7 +6056,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" s="41">
         <v>43475</v>
       </c>
@@ -6186,12 +6066,12 @@
       <c r="C8" s="48">
         <v>190</v>
       </c>
-      <c r="E8" s="108" t="s">
+      <c r="E8" s="111" t="s">
         <v>139</v>
       </c>
-      <c r="F8" s="108"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F8" s="111"/>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="41">
         <v>43476</v>
       </c>
@@ -6201,10 +6081,10 @@
       <c r="C9" s="48">
         <v>190</v>
       </c>
-      <c r="E9" s="108"/>
-      <c r="F9" s="108"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="41">
         <v>43477</v>
       </c>
@@ -6214,10 +6094,10 @@
       <c r="C10" s="48">
         <v>190</v>
       </c>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="41">
         <v>43478</v>
       </c>
@@ -6227,10 +6107,10 @@
       <c r="C11" s="48">
         <v>190</v>
       </c>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="41">
         <v>43479</v>
       </c>
@@ -6240,10 +6120,10 @@
       <c r="C12" s="48">
         <v>190</v>
       </c>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="41">
         <v>43480</v>
       </c>
@@ -6253,56 +6133,56 @@
       <c r="C13" s="48">
         <v>190</v>
       </c>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="41"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
       <c r="T14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="45"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="46"/>
-      <c r="I20" s="109" t="s">
+      <c r="I20" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="J20" s="109"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="109"/>
-      <c r="M20" s="109"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J20" s="112"/>
+      <c r="K20" s="112"/>
+      <c r="L20" s="112"/>
+      <c r="M20" s="112"/>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="45"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="46"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="45"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="46"/>
     </row>
   </sheetData>
@@ -6317,17 +6197,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41:B45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -6339,18 +6219,18 @@
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:9" ht="25.5">
+      <c r="A1" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-    </row>
-    <row r="3" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+    </row>
+    <row r="3" spans="1:9" ht="57" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -6373,7 +6253,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -6382,22 +6262,22 @@
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="71" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="72" t="s">
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="66" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -6410,15 +6290,15 @@
         <v>320</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>322</v>
+        <v>386</v>
       </c>
       <c r="G6" s="7">
         <v>43332</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="73"/>
-      <c r="B7" s="62"/>
+    <row r="7" spans="1:9">
+      <c r="A7" s="65"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="9" t="s">
         <v>39</v>
       </c>
@@ -6429,15 +6309,15 @@
         <v>335</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>322</v>
+        <v>386</v>
       </c>
       <c r="G7" s="7">
         <v>43334</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="73"/>
-      <c r="B8" s="62"/>
+    <row r="8" spans="1:9">
+      <c r="A8" s="65"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="9" t="s">
         <v>41</v>
       </c>
@@ -6448,15 +6328,15 @@
         <v>336</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>322</v>
+        <v>386</v>
       </c>
       <c r="G8" s="7">
         <v>43337</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="73"/>
-      <c r="B9" s="62"/>
+    <row r="9" spans="1:9">
+      <c r="A9" s="65"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="9" t="s">
         <v>42</v>
       </c>
@@ -6467,17 +6347,17 @@
         <v>321</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>322</v>
+        <v>386</v>
       </c>
       <c r="G9" s="7">
         <v>43340</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="72" t="s">
+    <row r="10" spans="1:9">
+      <c r="A10" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="69" t="s">
         <v>328</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -6490,15 +6370,15 @@
         <v>320</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>322</v>
+        <v>386</v>
       </c>
       <c r="G10" s="7">
         <v>43345</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
-      <c r="B11" s="64"/>
+    <row r="11" spans="1:9">
+      <c r="A11" s="65"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="9" t="s">
         <v>48</v>
       </c>
@@ -6509,16 +6389,16 @@
         <v>336</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>322</v>
+        <v>386</v>
       </c>
       <c r="G11" s="7">
         <v>43349</v>
       </c>
       <c r="I11" s="44"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
-      <c r="B12" s="64"/>
+    <row r="12" spans="1:9">
+      <c r="A12" s="65"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="9" t="s">
         <v>49</v>
       </c>
@@ -6529,15 +6409,15 @@
         <v>336</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>322</v>
+        <v>386</v>
       </c>
       <c r="G12" s="7">
         <v>43351</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="73"/>
-      <c r="B13" s="64"/>
+    <row r="13" spans="1:9">
+      <c r="A13" s="65"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="9" t="s">
         <v>50</v>
       </c>
@@ -6548,14 +6428,14 @@
         <v>321</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>322</v>
+        <v>386</v>
       </c>
       <c r="G13" s="7">
         <v>43353</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="72" t="s">
+    <row r="14" spans="1:9" ht="15" customHeight="1">
+      <c r="A14" s="64" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
@@ -6577,8 +6457,8 @@
         <v>43355</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="73"/>
+    <row r="15" spans="1:9">
+      <c r="A15" s="65"/>
       <c r="B15" s="18"/>
       <c r="C15" s="9" t="s">
         <v>55</v>
@@ -6596,8 +6476,8 @@
         <v>43357</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="73"/>
+    <row r="16" spans="1:9">
+      <c r="A16" s="65"/>
       <c r="B16" s="16"/>
       <c r="C16" s="9" t="s">
         <v>56</v>
@@ -6615,8 +6495,8 @@
         <v>43359</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="74"/>
+    <row r="17" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A17" s="68"/>
       <c r="B17" s="18"/>
       <c r="C17" s="9" t="s">
         <v>57</v>
@@ -6634,11 +6514,11 @@
         <v>43363</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="72" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="69" t="s">
         <v>330</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -6657,9 +6537,9 @@
         <v>43365</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="73"/>
-      <c r="B19" s="64"/>
+    <row r="19" spans="1:7">
+      <c r="A19" s="65"/>
+      <c r="B19" s="70"/>
       <c r="C19" s="9" t="s">
         <v>61</v>
       </c>
@@ -6676,9 +6556,9 @@
         <v>43367</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="73"/>
-      <c r="B20" s="64"/>
+    <row r="20" spans="1:7">
+      <c r="A20" s="65"/>
+      <c r="B20" s="70"/>
       <c r="C20" s="9" t="s">
         <v>62</v>
       </c>
@@ -6695,9 +6575,9 @@
         <v>43369</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="73"/>
-      <c r="B21" s="64"/>
+    <row r="21" spans="1:7">
+      <c r="A21" s="65"/>
+      <c r="B21" s="70"/>
       <c r="C21" s="9" t="s">
         <v>63</v>
       </c>
@@ -6714,11 +6594,11 @@
         <v>43363</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="72" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="69" t="s">
         <v>332</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -6737,9 +6617,9 @@
         <v>43375</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="73"/>
-      <c r="B23" s="64"/>
+    <row r="23" spans="1:7">
+      <c r="A23" s="65"/>
+      <c r="B23" s="70"/>
       <c r="C23" s="9" t="s">
         <v>65</v>
       </c>
@@ -6756,9 +6636,9 @@
         <v>43379</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="73"/>
-      <c r="B24" s="64"/>
+    <row r="24" spans="1:7">
+      <c r="A24" s="65"/>
+      <c r="B24" s="70"/>
       <c r="C24" s="9" t="s">
         <v>66</v>
       </c>
@@ -6775,9 +6655,9 @@
         <v>43381</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="73"/>
-      <c r="B25" s="64"/>
+    <row r="25" spans="1:7">
+      <c r="A25" s="65"/>
+      <c r="B25" s="70"/>
       <c r="C25" s="9" t="s">
         <v>67</v>
       </c>
@@ -6794,11 +6674,11 @@
         <v>43383</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="72" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="64" t="s">
         <v>219</v>
       </c>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="66" t="s">
         <v>331</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -6817,9 +6697,9 @@
         <v>43385</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="73"/>
-      <c r="B27" s="62"/>
+    <row r="27" spans="1:7">
+      <c r="A27" s="65"/>
+      <c r="B27" s="67"/>
       <c r="C27" s="9" t="s">
         <v>69</v>
       </c>
@@ -6836,9 +6716,9 @@
         <v>43387</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="73"/>
-      <c r="B28" s="62"/>
+    <row r="28" spans="1:7">
+      <c r="A28" s="65"/>
+      <c r="B28" s="67"/>
       <c r="C28" s="9" t="s">
         <v>70</v>
       </c>
@@ -6855,9 +6735,9 @@
         <v>43388</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="73"/>
-      <c r="B29" s="62"/>
+    <row r="29" spans="1:7">
+      <c r="A29" s="65"/>
+      <c r="B29" s="67"/>
       <c r="C29" s="9" t="s">
         <v>71</v>
       </c>
@@ -6874,11 +6754,11 @@
         <v>43390</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="72" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" s="64" t="s">
         <v>220</v>
       </c>
-      <c r="B30" s="63" t="s">
+      <c r="B30" s="69" t="s">
         <v>272</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -6897,9 +6777,9 @@
         <v>43392</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="73"/>
-      <c r="B31" s="64"/>
+    <row r="31" spans="1:7">
+      <c r="A31" s="65"/>
+      <c r="B31" s="70"/>
       <c r="C31" s="9" t="s">
         <v>73</v>
       </c>
@@ -6916,9 +6796,9 @@
         <v>43393</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="73"/>
-      <c r="B32" s="64"/>
+    <row r="32" spans="1:7">
+      <c r="A32" s="65"/>
+      <c r="B32" s="70"/>
       <c r="C32" s="9" t="s">
         <v>74</v>
       </c>
@@ -6935,11 +6815,11 @@
         <v>43394</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="72" t="s">
+    <row r="33" spans="1:7">
+      <c r="A33" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="72" t="s">
         <v>252</v>
       </c>
       <c r="C33" s="9" t="s">
@@ -6958,9 +6838,9 @@
         <v>43395</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="73"/>
-      <c r="B34" s="67"/>
+    <row r="34" spans="1:7">
+      <c r="A34" s="65"/>
+      <c r="B34" s="73"/>
       <c r="C34" s="9" t="s">
         <v>76</v>
       </c>
@@ -6977,9 +6857,9 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="73"/>
-      <c r="B35" s="67"/>
+    <row r="35" spans="1:7">
+      <c r="A35" s="65"/>
+      <c r="B35" s="73"/>
       <c r="C35" s="9" t="s">
         <v>77</v>
       </c>
@@ -6996,9 +6876,9 @@
         <v>43399</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="74"/>
-      <c r="B36" s="68"/>
+    <row r="36" spans="1:7">
+      <c r="A36" s="68"/>
+      <c r="B36" s="74"/>
       <c r="C36" s="9" t="s">
         <v>78</v>
       </c>
@@ -7015,11 +6895,11 @@
         <v>43401</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="72" t="s">
+    <row r="37" spans="1:7">
+      <c r="A37" s="64" t="s">
         <v>222</v>
       </c>
-      <c r="B37" s="63" t="s">
+      <c r="B37" s="69" t="s">
         <v>250</v>
       </c>
       <c r="C37" s="9" t="s">
@@ -7038,9 +6918,9 @@
         <v>43403</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="73"/>
-      <c r="B38" s="64"/>
+    <row r="38" spans="1:7">
+      <c r="A38" s="65"/>
+      <c r="B38" s="70"/>
       <c r="C38" s="9" t="s">
         <v>80</v>
       </c>
@@ -7057,9 +6937,9 @@
         <v>43405</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="75"/>
-      <c r="B39" s="64"/>
+    <row r="39" spans="1:7">
+      <c r="A39" s="71"/>
+      <c r="B39" s="70"/>
       <c r="C39" s="9" t="s">
         <v>81</v>
       </c>
@@ -7076,9 +6956,9 @@
         <v>43408</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="75"/>
-      <c r="B40" s="64"/>
+    <row r="40" spans="1:7">
+      <c r="A40" s="71"/>
+      <c r="B40" s="70"/>
       <c r="C40" s="9" t="s">
         <v>82</v>
       </c>
@@ -7095,9 +6975,9 @@
         <v>43410</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="69"/>
-      <c r="B41" s="61"/>
+    <row r="41" spans="1:7">
+      <c r="A41" s="78"/>
+      <c r="B41" s="66"/>
       <c r="C41" s="9" t="s">
         <v>83</v>
       </c>
@@ -7108,9 +6988,9 @@
       </c>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="69"/>
-      <c r="B42" s="62"/>
+    <row r="42" spans="1:7">
+      <c r="A42" s="78"/>
+      <c r="B42" s="67"/>
       <c r="C42" s="9" t="s">
         <v>84</v>
       </c>
@@ -7121,9 +7001,9 @@
       </c>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="69"/>
-      <c r="B43" s="62"/>
+    <row r="43" spans="1:7">
+      <c r="A43" s="78"/>
+      <c r="B43" s="67"/>
       <c r="C43" s="9" t="s">
         <v>85</v>
       </c>
@@ -7134,9 +7014,9 @@
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="69"/>
-      <c r="B44" s="62"/>
+    <row r="44" spans="1:7">
+      <c r="A44" s="78"/>
+      <c r="B44" s="67"/>
       <c r="C44" s="9" t="s">
         <v>86</v>
       </c>
@@ -7147,9 +7027,9 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="69"/>
-      <c r="B45" s="62"/>
+    <row r="45" spans="1:7">
+      <c r="A45" s="78"/>
+      <c r="B45" s="67"/>
       <c r="C45" s="9" t="s">
         <v>87</v>
       </c>
@@ -7160,11 +7040,11 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="69" t="s">
+    <row r="46" spans="1:7">
+      <c r="A46" s="78" t="s">
         <v>323</v>
       </c>
-      <c r="B46" s="63"/>
+      <c r="B46" s="69"/>
       <c r="C46" s="9" t="s">
         <v>88</v>
       </c>
@@ -7175,9 +7055,9 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="69"/>
-      <c r="B47" s="64"/>
+    <row r="47" spans="1:7">
+      <c r="A47" s="78"/>
+      <c r="B47" s="70"/>
       <c r="C47" s="9" t="s">
         <v>89</v>
       </c>
@@ -7188,9 +7068,9 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="69"/>
-      <c r="B48" s="64"/>
+    <row r="48" spans="1:7">
+      <c r="A48" s="78"/>
+      <c r="B48" s="70"/>
       <c r="C48" s="9" t="s">
         <v>90</v>
       </c>
@@ -7201,9 +7081,9 @@
       </c>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="69"/>
-      <c r="B49" s="65"/>
+    <row r="49" spans="1:7">
+      <c r="A49" s="78"/>
+      <c r="B49" s="77"/>
       <c r="C49" s="9" t="s">
         <v>91</v>
       </c>
@@ -7214,11 +7094,11 @@
       </c>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="69" t="s">
+    <row r="50" spans="1:7">
+      <c r="A50" s="78" t="s">
         <v>324</v>
       </c>
-      <c r="B50" s="66"/>
+      <c r="B50" s="72"/>
       <c r="C50" s="9" t="s">
         <v>92</v>
       </c>
@@ -7227,9 +7107,9 @@
       <c r="F50" s="11"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="69"/>
-      <c r="B51" s="67"/>
+    <row r="51" spans="1:7">
+      <c r="A51" s="78"/>
+      <c r="B51" s="73"/>
       <c r="C51" s="9" t="s">
         <v>93</v>
       </c>
@@ -7238,9 +7118,9 @@
       <c r="F51" s="11"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="69"/>
-      <c r="B52" s="67"/>
+    <row r="52" spans="1:7">
+      <c r="A52" s="78"/>
+      <c r="B52" s="73"/>
       <c r="C52" s="9" t="s">
         <v>94</v>
       </c>
@@ -7249,9 +7129,9 @@
       <c r="F52" s="11"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="69"/>
-      <c r="B53" s="68"/>
+    <row r="53" spans="1:7">
+      <c r="A53" s="78"/>
+      <c r="B53" s="74"/>
       <c r="C53" s="9" t="s">
         <v>95</v>
       </c>
@@ -7260,11 +7140,11 @@
       <c r="F53" s="11"/>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="69" t="s">
+    <row r="54" spans="1:7">
+      <c r="A54" s="78" t="s">
         <v>223</v>
       </c>
-      <c r="B54" s="63"/>
+      <c r="B54" s="69"/>
       <c r="C54" s="9" t="s">
         <v>96</v>
       </c>
@@ -7273,9 +7153,9 @@
       <c r="F54" s="11"/>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="69"/>
-      <c r="B55" s="64"/>
+    <row r="55" spans="1:7">
+      <c r="A55" s="78"/>
+      <c r="B55" s="70"/>
       <c r="C55" s="9" t="s">
         <v>97</v>
       </c>
@@ -7284,9 +7164,9 @@
       <c r="F55" s="11"/>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="69"/>
-      <c r="B56" s="64"/>
+    <row r="56" spans="1:7">
+      <c r="A56" s="78"/>
+      <c r="B56" s="70"/>
       <c r="C56" s="9" t="s">
         <v>98</v>
       </c>
@@ -7295,9 +7175,9 @@
       <c r="F56" s="11"/>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="69"/>
-      <c r="B57" s="64"/>
+    <row r="57" spans="1:7">
+      <c r="A57" s="78"/>
+      <c r="B57" s="70"/>
       <c r="C57" s="9" t="s">
         <v>99</v>
       </c>
@@ -7306,9 +7186,9 @@
       <c r="F57" s="11"/>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="69"/>
-      <c r="B58" s="65"/>
+    <row r="58" spans="1:7">
+      <c r="A58" s="78"/>
+      <c r="B58" s="77"/>
       <c r="C58" s="9" t="s">
         <v>100</v>
       </c>
@@ -7317,17 +7197,17 @@
       <c r="F58" s="11"/>
       <c r="G58" s="7"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="D60" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="D61" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="D62" t="s">
         <v>327</v>
       </c>
@@ -7341,25 +7221,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="27">
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
     <mergeCell ref="B41:B45"/>
     <mergeCell ref="B46:B49"/>
     <mergeCell ref="B50:B53"/>
@@ -7368,6 +7229,25 @@
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A54:A58"/>
     <mergeCell ref="A41:A45"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
@@ -7375,7 +7255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7385,61 +7265,61 @@
       <selection sqref="A1:M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="94" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="82"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="86"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="88"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="96"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="99"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="102"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="22" t="s">
         <v>142</v>
       </c>
@@ -7455,18 +7335,18 @@
       <c r="E4" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="89" t="s">
+      <c r="F4" s="103" t="s">
         <v>146</v>
       </c>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="90"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="104"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="24"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -7483,28 +7363,28 @@
       <c r="L5" s="26"/>
       <c r="M5" s="28"/>
     </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="91" t="s">
+    <row r="6" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A6" s="105" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="93"/>
-    </row>
-    <row r="7" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A7" s="94">
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="107"/>
+    </row>
+    <row r="7" spans="1:13" ht="51">
+      <c r="A7" s="108">
         <v>1</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="82" t="s">
         <v>372</v>
       </c>
       <c r="C7" s="29" t="s">
@@ -7529,9 +7409,9 @@
       <c r="L7" s="30"/>
       <c r="M7" s="31"/>
     </row>
-    <row r="8" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A8" s="95"/>
-      <c r="B8" s="97"/>
+    <row r="8" spans="1:13" ht="51">
+      <c r="A8" s="109"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="29" t="s">
         <v>369</v>
       </c>
@@ -7554,9 +7434,9 @@
       <c r="L8" s="1"/>
       <c r="M8" s="32"/>
     </row>
-    <row r="9" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="95"/>
-      <c r="B9" s="97"/>
+    <row r="9" spans="1:13" ht="25.5">
+      <c r="A9" s="109"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="29" t="s">
         <v>370</v>
       </c>
@@ -7579,9 +7459,9 @@
       <c r="L9" s="1"/>
       <c r="M9" s="32"/>
     </row>
-    <row r="10" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="96"/>
-      <c r="B10" s="97"/>
+    <row r="10" spans="1:13" ht="26.25" thickBot="1">
+      <c r="A10" s="110"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="29" t="s">
         <v>371</v>
       </c>
@@ -7604,11 +7484,11 @@
       <c r="L10" s="33"/>
       <c r="M10" s="34"/>
     </row>
-    <row r="11" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="76">
+    <row r="11" spans="1:13" ht="39" thickBot="1">
+      <c r="A11" s="87">
         <v>2</v>
       </c>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="86" t="s">
         <v>153</v>
       </c>
       <c r="C11" s="35" t="s">
@@ -7633,9 +7513,9 @@
       <c r="L11" s="30"/>
       <c r="M11" s="31"/>
     </row>
-    <row r="12" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="77"/>
-      <c r="B12" s="79"/>
+    <row r="12" spans="1:13" ht="26.25" thickBot="1">
+      <c r="A12" s="88"/>
+      <c r="B12" s="86"/>
       <c r="C12" s="35" t="s">
         <v>374</v>
       </c>
@@ -7658,9 +7538,9 @@
       <c r="L12" s="1"/>
       <c r="M12" s="32"/>
     </row>
-    <row r="13" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="77"/>
-      <c r="B13" s="79"/>
+    <row r="13" spans="1:13" ht="51.75" thickBot="1">
+      <c r="A13" s="88"/>
+      <c r="B13" s="86"/>
       <c r="C13" s="35" t="s">
         <v>375</v>
       </c>
@@ -7683,9 +7563,9 @@
       <c r="L13" s="1"/>
       <c r="M13" s="32"/>
     </row>
-    <row r="14" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="78"/>
-      <c r="B14" s="79"/>
+    <row r="14" spans="1:13" ht="39" thickBot="1">
+      <c r="A14" s="89"/>
+      <c r="B14" s="86"/>
       <c r="C14" s="35" t="s">
         <v>154</v>
       </c>
@@ -7708,11 +7588,11 @@
       <c r="L14" s="33"/>
       <c r="M14" s="34"/>
     </row>
-    <row r="15" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="98">
+    <row r="15" spans="1:13" ht="26.25" thickBot="1">
+      <c r="A15" s="93">
         <v>3</v>
       </c>
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="86" t="s">
         <v>155</v>
       </c>
       <c r="C15" s="35" t="s">
@@ -7737,9 +7617,9 @@
       <c r="L15" s="36"/>
       <c r="M15" s="37"/>
     </row>
-    <row r="16" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="77"/>
-      <c r="B16" s="79"/>
+    <row r="16" spans="1:13" ht="25.5">
+      <c r="A16" s="88"/>
+      <c r="B16" s="86"/>
       <c r="C16" s="35" t="s">
         <v>156</v>
       </c>
@@ -7762,9 +7642,9 @@
       <c r="L16" s="1"/>
       <c r="M16" s="32"/>
     </row>
-    <row r="17" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="77"/>
-      <c r="B17" s="79"/>
+    <row r="17" spans="1:13" ht="38.25">
+      <c r="A17" s="88"/>
+      <c r="B17" s="86"/>
       <c r="C17" s="35" t="s">
         <v>376</v>
       </c>
@@ -7787,9 +7667,9 @@
       <c r="L17" s="1"/>
       <c r="M17" s="32"/>
     </row>
-    <row r="18" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="78"/>
-      <c r="B18" s="79"/>
+    <row r="18" spans="1:13" ht="39" thickBot="1">
+      <c r="A18" s="89"/>
+      <c r="B18" s="86"/>
       <c r="C18" s="35" t="s">
         <v>376</v>
       </c>
@@ -7812,11 +7692,11 @@
       <c r="L18" s="33"/>
       <c r="M18" s="34"/>
     </row>
-    <row r="19" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="76">
+    <row r="19" spans="1:13" ht="39" thickBot="1">
+      <c r="A19" s="87">
         <v>4</v>
       </c>
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="86" t="s">
         <v>157</v>
       </c>
       <c r="C19" s="35" t="s">
@@ -7841,9 +7721,9 @@
       <c r="L19" s="30"/>
       <c r="M19" s="31"/>
     </row>
-    <row r="20" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="77"/>
-      <c r="B20" s="79"/>
+    <row r="20" spans="1:13" ht="39" thickBot="1">
+      <c r="A20" s="88"/>
+      <c r="B20" s="86"/>
       <c r="C20" s="35" t="s">
         <v>376</v>
       </c>
@@ -7866,9 +7746,9 @@
       <c r="L20" s="1"/>
       <c r="M20" s="32"/>
     </row>
-    <row r="21" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="77"/>
-      <c r="B21" s="79"/>
+    <row r="21" spans="1:13" ht="39" thickBot="1">
+      <c r="A21" s="88"/>
+      <c r="B21" s="86"/>
       <c r="C21" s="35" t="s">
         <v>158</v>
       </c>
@@ -7893,9 +7773,9 @@
       <c r="L21" s="1"/>
       <c r="M21" s="32"/>
     </row>
-    <row r="22" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="78"/>
-      <c r="B22" s="79"/>
+    <row r="22" spans="1:13" ht="39" thickBot="1">
+      <c r="A22" s="89"/>
+      <c r="B22" s="86"/>
       <c r="C22" s="35" t="s">
         <v>158</v>
       </c>
@@ -7920,11 +7800,11 @@
       <c r="L22" s="33"/>
       <c r="M22" s="34"/>
     </row>
-    <row r="23" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="99">
+    <row r="23" spans="1:13" ht="39" thickBot="1">
+      <c r="A23" s="79">
         <v>5</v>
       </c>
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="86" t="s">
         <v>159</v>
       </c>
       <c r="C23" s="35" t="s">
@@ -7951,9 +7831,9 @@
       <c r="L23" s="30"/>
       <c r="M23" s="31"/>
     </row>
-    <row r="24" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="100"/>
-      <c r="B24" s="79"/>
+    <row r="24" spans="1:13" ht="39" thickBot="1">
+      <c r="A24" s="80"/>
+      <c r="B24" s="86"/>
       <c r="C24" s="35" t="s">
         <v>158</v>
       </c>
@@ -7978,9 +7858,9 @@
       <c r="L24" s="1"/>
       <c r="M24" s="32"/>
     </row>
-    <row r="25" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="100"/>
-      <c r="B25" s="79"/>
+    <row r="25" spans="1:13" ht="26.25" thickBot="1">
+      <c r="A25" s="80"/>
+      <c r="B25" s="86"/>
       <c r="C25" s="35" t="s">
         <v>160</v>
       </c>
@@ -8003,9 +7883,9 @@
       <c r="L25" s="1"/>
       <c r="M25" s="32"/>
     </row>
-    <row r="26" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="101"/>
-      <c r="B26" s="79"/>
+    <row r="26" spans="1:13" ht="26.25" thickBot="1">
+      <c r="A26" s="81"/>
+      <c r="B26" s="86"/>
       <c r="C26" s="35" t="s">
         <v>160</v>
       </c>
@@ -8028,11 +7908,11 @@
       <c r="L26" s="33"/>
       <c r="M26" s="34"/>
     </row>
-    <row r="27" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="99">
+    <row r="27" spans="1:13" ht="64.5" thickBot="1">
+      <c r="A27" s="79">
         <v>6</v>
       </c>
-      <c r="B27" s="79" t="s">
+      <c r="B27" s="86" t="s">
         <v>161</v>
       </c>
       <c r="C27" s="35" t="s">
@@ -8057,9 +7937,9 @@
       <c r="L27" s="30"/>
       <c r="M27" s="31"/>
     </row>
-    <row r="28" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100"/>
-      <c r="B28" s="79"/>
+    <row r="28" spans="1:13" ht="64.5" thickBot="1">
+      <c r="A28" s="80"/>
+      <c r="B28" s="86"/>
       <c r="C28" s="35" t="s">
         <v>162</v>
       </c>
@@ -8082,9 +7962,9 @@
       <c r="L28" s="1"/>
       <c r="M28" s="32"/>
     </row>
-    <row r="29" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="100"/>
-      <c r="B29" s="79"/>
+    <row r="29" spans="1:13" ht="64.5" thickBot="1">
+      <c r="A29" s="80"/>
+      <c r="B29" s="86"/>
       <c r="C29" s="35" t="s">
         <v>162</v>
       </c>
@@ -8107,9 +7987,9 @@
       <c r="L29" s="1"/>
       <c r="M29" s="32"/>
     </row>
-    <row r="30" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="101"/>
-      <c r="B30" s="79"/>
+    <row r="30" spans="1:13" ht="64.5" thickBot="1">
+      <c r="A30" s="81"/>
+      <c r="B30" s="86"/>
       <c r="C30" s="35" t="s">
         <v>162</v>
       </c>
@@ -8132,11 +8012,11 @@
       <c r="L30" s="33"/>
       <c r="M30" s="34"/>
     </row>
-    <row r="31" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="76">
+    <row r="31" spans="1:13" ht="64.5" thickBot="1">
+      <c r="A31" s="87">
         <v>7</v>
       </c>
-      <c r="B31" s="105" t="s">
+      <c r="B31" s="90" t="s">
         <v>163</v>
       </c>
       <c r="C31" s="35" t="s">
@@ -8161,9 +8041,9 @@
       <c r="L31" s="30"/>
       <c r="M31" s="31"/>
     </row>
-    <row r="32" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="77"/>
-      <c r="B32" s="106"/>
+    <row r="32" spans="1:13" ht="39" thickBot="1">
+      <c r="A32" s="88"/>
+      <c r="B32" s="91"/>
       <c r="C32" s="29" t="s">
         <v>165</v>
       </c>
@@ -8186,9 +8066,9 @@
       <c r="L32" s="1"/>
       <c r="M32" s="32"/>
     </row>
-    <row r="33" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="77"/>
-      <c r="B33" s="106"/>
+    <row r="33" spans="1:13" ht="64.5" thickBot="1">
+      <c r="A33" s="88"/>
+      <c r="B33" s="91"/>
       <c r="C33" s="35" t="s">
         <v>164</v>
       </c>
@@ -8211,9 +8091,9 @@
       <c r="L33" s="1"/>
       <c r="M33" s="32"/>
     </row>
-    <row r="34" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="78"/>
-      <c r="B34" s="107"/>
+    <row r="34" spans="1:13" ht="39" thickBot="1">
+      <c r="A34" s="89"/>
+      <c r="B34" s="92"/>
       <c r="C34" s="29" t="s">
         <v>165</v>
       </c>
@@ -8236,11 +8116,11 @@
       <c r="L34" s="33"/>
       <c r="M34" s="34"/>
     </row>
-    <row r="35" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="99">
+    <row r="35" spans="1:13" ht="51.75" thickBot="1">
+      <c r="A35" s="79">
         <v>8</v>
       </c>
-      <c r="B35" s="79" t="s">
+      <c r="B35" s="86" t="s">
         <v>166</v>
       </c>
       <c r="C35" s="35" t="s">
@@ -8265,9 +8145,9 @@
       <c r="L35" s="30"/>
       <c r="M35" s="31"/>
     </row>
-    <row r="36" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
-      <c r="B36" s="79"/>
+    <row r="36" spans="1:13" ht="64.5" thickBot="1">
+      <c r="A36" s="80"/>
+      <c r="B36" s="86"/>
       <c r="C36" s="29" t="s">
         <v>168</v>
       </c>
@@ -8290,9 +8170,9 @@
       <c r="L36" s="1"/>
       <c r="M36" s="32"/>
     </row>
-    <row r="37" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
-      <c r="B37" s="79"/>
+    <row r="37" spans="1:13" ht="64.5" thickBot="1">
+      <c r="A37" s="80"/>
+      <c r="B37" s="86"/>
       <c r="C37" s="35" t="s">
         <v>169</v>
       </c>
@@ -8315,9 +8195,9 @@
       <c r="L37" s="1"/>
       <c r="M37" s="32"/>
     </row>
-    <row r="38" spans="1:13" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="101"/>
-      <c r="B38" s="79"/>
+    <row r="38" spans="1:13" ht="77.25" thickBot="1">
+      <c r="A38" s="81"/>
+      <c r="B38" s="86"/>
       <c r="C38" s="35" t="s">
         <v>170</v>
       </c>
@@ -8340,11 +8220,11 @@
       <c r="L38" s="33"/>
       <c r="M38" s="34"/>
     </row>
-    <row r="39" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="99">
+    <row r="39" spans="1:13" ht="39" thickBot="1">
+      <c r="A39" s="79">
         <v>9</v>
       </c>
-      <c r="B39" s="97" t="s">
+      <c r="B39" s="82" t="s">
         <v>171</v>
       </c>
       <c r="C39" s="35" t="s">
@@ -8369,9 +8249,9 @@
       <c r="L39" s="30"/>
       <c r="M39" s="31"/>
     </row>
-    <row r="40" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="100"/>
-      <c r="B40" s="97"/>
+    <row r="40" spans="1:13" ht="39" thickBot="1">
+      <c r="A40" s="80"/>
+      <c r="B40" s="82"/>
       <c r="C40" s="35" t="s">
         <v>173</v>
       </c>
@@ -8394,9 +8274,9 @@
       <c r="L40" s="1"/>
       <c r="M40" s="32"/>
     </row>
-    <row r="41" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
-      <c r="B41" s="97"/>
+    <row r="41" spans="1:13" ht="51.75" thickBot="1">
+      <c r="A41" s="80"/>
+      <c r="B41" s="82"/>
       <c r="C41" s="35" t="s">
         <v>174</v>
       </c>
@@ -8419,9 +8299,9 @@
       <c r="L41" s="1"/>
       <c r="M41" s="32"/>
     </row>
-    <row r="42" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="101"/>
-      <c r="B42" s="97"/>
+    <row r="42" spans="1:13" ht="51.75" thickBot="1">
+      <c r="A42" s="81"/>
+      <c r="B42" s="82"/>
       <c r="C42" s="29" t="s">
         <v>175</v>
       </c>
@@ -8444,11 +8324,11 @@
       <c r="L42" s="33"/>
       <c r="M42" s="34"/>
     </row>
-    <row r="43" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="97">
+    <row r="43" spans="1:13" ht="64.5" thickBot="1">
+      <c r="A43" s="82">
         <v>10</v>
       </c>
-      <c r="B43" s="102" t="s">
+      <c r="B43" s="83" t="s">
         <v>176</v>
       </c>
       <c r="C43" s="38" t="s">
@@ -8473,9 +8353,9 @@
       <c r="L43" s="30"/>
       <c r="M43" s="31"/>
     </row>
-    <row r="44" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="97"/>
-      <c r="B44" s="103"/>
+    <row r="44" spans="1:13" ht="39" thickBot="1">
+      <c r="A44" s="82"/>
+      <c r="B44" s="84"/>
       <c r="C44" s="29" t="s">
         <v>178</v>
       </c>
@@ -8498,9 +8378,9 @@
       <c r="L44" s="1"/>
       <c r="M44" s="32"/>
     </row>
-    <row r="45" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="97"/>
-      <c r="B45" s="103"/>
+    <row r="45" spans="1:13" ht="39" thickBot="1">
+      <c r="A45" s="82"/>
+      <c r="B45" s="84"/>
       <c r="C45" s="29" t="s">
         <v>178</v>
       </c>
@@ -8523,9 +8403,9 @@
       <c r="L45" s="1"/>
       <c r="M45" s="32"/>
     </row>
-    <row r="46" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="97"/>
-      <c r="B46" s="104"/>
+    <row r="46" spans="1:13" ht="51.75" thickBot="1">
+      <c r="A46" s="82"/>
+      <c r="B46" s="85"/>
       <c r="C46" s="29" t="s">
         <v>179</v>
       </c>
@@ -8548,12 +8428,12 @@
       <c r="L46" s="33"/>
       <c r="M46" s="34"/>
     </row>
-    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="15.75">
       <c r="B47" s="39"/>
       <c r="C47" s="39"/>
-      <c r="E47" s="117"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E47" s="61"/>
+    </row>
+    <row r="48" spans="1:13">
       <c r="B48" s="40" t="s">
         <v>321</v>
       </c>
@@ -8561,7 +8441,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3">
       <c r="B49" s="40" t="s">
         <v>320</v>
       </c>
@@ -8569,33 +8449,33 @@
         <v>358</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3">
       <c r="B50" s="40"/>
       <c r="C50" s="40"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3">
       <c r="B51" s="40"/>
       <c r="C51" s="40"/>
     </row>
-    <row r="52" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" ht="15.75">
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
     </row>
-    <row r="53" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" ht="15.75">
       <c r="B53" s="40" t="s">
         <v>184</v>
       </c>
       <c r="C53" s="39"/>
     </row>
-    <row r="54" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" ht="15.75">
       <c r="B54" s="39"/>
       <c r="C54" s="39"/>
     </row>
-    <row r="55" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" ht="15.75">
       <c r="B55" s="40"/>
       <c r="C55" s="39"/>
     </row>
-    <row r="56" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" ht="15.75">
       <c r="B56" s="40" t="s">
         <v>185</v>
       </c>
@@ -8609,6 +8489,19 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="23">
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A1:M3"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="B39:B42"/>
     <mergeCell ref="A43:A46"/>
@@ -8619,19 +8512,6 @@
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="A1:M3"/>
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="A6:M6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="94" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -8639,7 +8519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8649,7 +8529,7 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -8659,26 +8539,26 @@
     <col min="6" max="6" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="21"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="21"/>
     </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="110" t="s">
+    <row r="5" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A5" s="113" t="s">
         <v>200</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="21"/>
     </row>
-    <row r="7" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="42" customHeight="1">
       <c r="A7" s="42" t="s">
         <v>138</v>
       </c>
@@ -8689,7 +8569,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="41">
         <v>43332</v>
       </c>
@@ -8697,14 +8577,14 @@
         <v>20</v>
       </c>
       <c r="C8" s="48">
-        <v>20</v>
-      </c>
-      <c r="E8" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="111" t="s">
         <v>139</v>
       </c>
-      <c r="F8" s="108"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="111"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="41">
         <v>43355</v>
       </c>
@@ -8712,12 +8592,12 @@
         <v>20</v>
       </c>
       <c r="C9" s="48">
-        <v>20</v>
-      </c>
-      <c r="E9" s="108"/>
-      <c r="F9" s="108"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="41">
         <v>43354</v>
       </c>
@@ -8725,12 +8605,12 @@
         <v>20</v>
       </c>
       <c r="C10" s="48">
-        <v>20</v>
-      </c>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="41">
         <v>43357</v>
       </c>
@@ -8738,12 +8618,12 @@
         <v>20</v>
       </c>
       <c r="C11" s="48">
-        <v>20</v>
-      </c>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="41">
         <v>43359</v>
       </c>
@@ -8751,12 +8631,12 @@
         <v>20</v>
       </c>
       <c r="C12" s="48">
-        <v>20</v>
-      </c>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="47">
         <v>43363</v>
       </c>
@@ -8764,62 +8644,62 @@
         <v>20</v>
       </c>
       <c r="C13" s="48">
-        <v>20</v>
-      </c>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="47"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="2"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="45"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="46"/>
-      <c r="I20" s="109" t="s">
+      <c r="I20" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="J20" s="109"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="109"/>
-      <c r="M20" s="109"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J20" s="112"/>
+      <c r="K20" s="112"/>
+      <c r="L20" s="112"/>
+      <c r="M20" s="112"/>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="45"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="46"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="45"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="46"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="2"/>
     </row>
   </sheetData>
@@ -8842,17 +8722,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -8863,18 +8743,18 @@
     <col min="7" max="7" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:7" ht="25.5">
+      <c r="A1" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-    </row>
-    <row r="3" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+    </row>
+    <row r="3" spans="1:7" ht="57" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -8897,7 +8777,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -8906,22 +8786,22 @@
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="71" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="78" t="s">
         <v>359</v>
       </c>
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="114" t="s">
         <v>227</v>
       </c>
       <c r="C6" s="20" t="s">
@@ -8940,9 +8820,9 @@
         <v>43405</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="69"/>
-      <c r="B7" s="112"/>
+    <row r="7" spans="1:7">
+      <c r="A7" s="78"/>
+      <c r="B7" s="115"/>
       <c r="C7" s="20" t="s">
         <v>103</v>
       </c>
@@ -8959,9 +8839,9 @@
         <v>43406</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="69"/>
-      <c r="B8" s="113"/>
+    <row r="8" spans="1:7">
+      <c r="A8" s="78"/>
+      <c r="B8" s="116"/>
       <c r="C8" s="20" t="s">
         <v>104</v>
       </c>
@@ -8978,11 +8858,11 @@
         <v>43407</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="69" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="66" t="s">
         <v>247</v>
       </c>
       <c r="C9" s="20" t="s">
@@ -9001,9 +8881,9 @@
         <v>43408</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="69"/>
-      <c r="B10" s="62"/>
+    <row r="10" spans="1:7">
+      <c r="A10" s="78"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="20" t="s">
         <v>106</v>
       </c>
@@ -9020,9 +8900,9 @@
         <v>43409</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="69"/>
-      <c r="B11" s="62"/>
+    <row r="11" spans="1:7">
+      <c r="A11" s="78"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="20" t="s">
         <v>107</v>
       </c>
@@ -9039,9 +8919,9 @@
         <v>43410</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="69"/>
-      <c r="B12" s="62"/>
+    <row r="12" spans="1:7">
+      <c r="A12" s="78"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="20" t="s">
         <v>108</v>
       </c>
@@ -9058,11 +8938,11 @@
         <v>43411</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="69" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" s="78" t="s">
         <v>361</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="69" t="s">
         <v>260</v>
       </c>
       <c r="C13" s="20" t="s">
@@ -9081,9 +8961,9 @@
         <v>43413</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="69"/>
-      <c r="B14" s="64"/>
+    <row r="14" spans="1:7">
+      <c r="A14" s="78"/>
+      <c r="B14" s="70"/>
       <c r="C14" s="20" t="s">
         <v>110</v>
       </c>
@@ -9100,9 +8980,9 @@
         <v>43414</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="69"/>
-      <c r="B15" s="64"/>
+    <row r="15" spans="1:7">
+      <c r="A15" s="78"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="20" t="s">
         <v>111</v>
       </c>
@@ -9119,9 +8999,9 @@
         <v>43415</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="69"/>
-      <c r="B16" s="65"/>
+    <row r="16" spans="1:7">
+      <c r="A16" s="78"/>
+      <c r="B16" s="77"/>
       <c r="C16" s="20" t="s">
         <v>112</v>
       </c>
@@ -9138,11 +9018,11 @@
         <v>43416</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="69" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="78" t="s">
         <v>362</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="66" t="s">
         <v>256</v>
       </c>
       <c r="C17" s="20" t="s">
@@ -9161,9 +9041,9 @@
         <v>43417</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
-      <c r="B18" s="62"/>
+    <row r="18" spans="1:7">
+      <c r="A18" s="78"/>
+      <c r="B18" s="67"/>
       <c r="C18" s="20" t="s">
         <v>114</v>
       </c>
@@ -9180,9 +9060,9 @@
         <v>43418</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="69"/>
-      <c r="B19" s="62"/>
+    <row r="19" spans="1:7">
+      <c r="A19" s="78"/>
+      <c r="B19" s="67"/>
       <c r="C19" s="20" t="s">
         <v>115</v>
       </c>
@@ -9199,9 +9079,9 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="69"/>
-      <c r="B20" s="62"/>
+    <row r="20" spans="1:7">
+      <c r="A20" s="78"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="20" t="s">
         <v>116</v>
       </c>
@@ -9218,9 +9098,9 @@
         <v>43420</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
-      <c r="B21" s="62"/>
+    <row r="21" spans="1:7">
+      <c r="A21" s="78"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="20" t="s">
         <v>117</v>
       </c>
@@ -9237,11 +9117,11 @@
         <v>43421</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="69" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" s="78" t="s">
         <v>363</v>
       </c>
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="69" t="s">
         <v>367</v>
       </c>
       <c r="C22" s="20" t="s">
@@ -9260,9 +9140,9 @@
         <v>43422</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="69"/>
-      <c r="B23" s="64"/>
+    <row r="23" spans="1:7">
+      <c r="A23" s="78"/>
+      <c r="B23" s="70"/>
       <c r="C23" s="20" t="s">
         <v>119</v>
       </c>
@@ -9279,9 +9159,9 @@
         <v>43423</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="69"/>
-      <c r="B24" s="64"/>
+    <row r="24" spans="1:7">
+      <c r="A24" s="78"/>
+      <c r="B24" s="70"/>
       <c r="C24" s="20" t="s">
         <v>120</v>
       </c>
@@ -9298,9 +9178,9 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="69"/>
-      <c r="B25" s="65"/>
+    <row r="25" spans="1:7">
+      <c r="A25" s="78"/>
+      <c r="B25" s="77"/>
       <c r="C25" s="20" t="s">
         <v>121</v>
       </c>
@@ -9317,11 +9197,11 @@
         <v>43425</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="69" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="78" t="s">
         <v>364</v>
       </c>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="66" t="s">
         <v>265</v>
       </c>
       <c r="C26" s="20" t="s">
@@ -9340,9 +9220,9 @@
         <v>43426</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="69"/>
-      <c r="B27" s="62"/>
+    <row r="27" spans="1:7">
+      <c r="A27" s="78"/>
+      <c r="B27" s="67"/>
       <c r="C27" s="20" t="s">
         <v>123</v>
       </c>
@@ -9359,9 +9239,9 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="69"/>
-      <c r="B28" s="62"/>
+    <row r="28" spans="1:7">
+      <c r="A28" s="78"/>
+      <c r="B28" s="67"/>
       <c r="C28" s="20" t="s">
         <v>124</v>
       </c>
@@ -9378,9 +9258,9 @@
         <v>43428</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="69"/>
-      <c r="B29" s="62"/>
+    <row r="29" spans="1:7">
+      <c r="A29" s="78"/>
+      <c r="B29" s="67"/>
       <c r="C29" s="20" t="s">
         <v>125</v>
       </c>
@@ -9397,9 +9277,9 @@
         <v>43429</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="69"/>
-      <c r="B30" s="62"/>
+    <row r="30" spans="1:7">
+      <c r="A30" s="78"/>
+      <c r="B30" s="67"/>
       <c r="C30" s="20" t="s">
         <v>126</v>
       </c>
@@ -9416,11 +9296,11 @@
         <v>43429</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="69" t="s">
+    <row r="31" spans="1:7">
+      <c r="A31" s="78" t="s">
         <v>365</v>
       </c>
-      <c r="B31" s="61" t="s">
+      <c r="B31" s="66" t="s">
         <v>271</v>
       </c>
       <c r="C31" s="20" t="s">
@@ -9439,9 +9319,9 @@
         <v>43430</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="69"/>
-      <c r="B32" s="62"/>
+    <row r="32" spans="1:7">
+      <c r="A32" s="78"/>
+      <c r="B32" s="67"/>
       <c r="C32" s="20" t="s">
         <v>128</v>
       </c>
@@ -9458,9 +9338,9 @@
         <v>43431</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="69"/>
-      <c r="B33" s="62"/>
+    <row r="33" spans="1:7">
+      <c r="A33" s="78"/>
+      <c r="B33" s="67"/>
       <c r="C33" s="20" t="s">
         <v>129</v>
       </c>
@@ -9477,9 +9357,9 @@
         <v>43432</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="69"/>
-      <c r="B34" s="62"/>
+    <row r="34" spans="1:7">
+      <c r="A34" s="78"/>
+      <c r="B34" s="67"/>
       <c r="C34" s="20" t="s">
         <v>130</v>
       </c>
@@ -9496,9 +9376,9 @@
         <v>43433</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="69"/>
-      <c r="B35" s="62"/>
+    <row r="35" spans="1:7">
+      <c r="A35" s="78"/>
+      <c r="B35" s="67"/>
       <c r="C35" s="20" t="s">
         <v>131</v>
       </c>
@@ -9515,11 +9395,11 @@
         <v>43433</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="69" t="s">
+    <row r="36" spans="1:7">
+      <c r="A36" s="78" t="s">
         <v>366</v>
       </c>
-      <c r="B36" s="63" t="s">
+      <c r="B36" s="69" t="s">
         <v>279</v>
       </c>
       <c r="C36" s="20" t="s">
@@ -9538,9 +9418,9 @@
         <v>43434</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="69"/>
-      <c r="B37" s="64"/>
+    <row r="37" spans="1:7">
+      <c r="A37" s="78"/>
+      <c r="B37" s="70"/>
       <c r="C37" s="20" t="s">
         <v>133</v>
       </c>
@@ -9557,9 +9437,9 @@
         <v>43435</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="69"/>
-      <c r="B38" s="64"/>
+    <row r="38" spans="1:7">
+      <c r="A38" s="78"/>
+      <c r="B38" s="70"/>
       <c r="C38" s="20" t="s">
         <v>134</v>
       </c>
@@ -9576,9 +9456,9 @@
         <v>43436</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="69"/>
-      <c r="B39" s="65"/>
+    <row r="39" spans="1:7">
+      <c r="A39" s="78"/>
+      <c r="B39" s="77"/>
       <c r="C39" s="20" t="s">
         <v>135</v>
       </c>
@@ -9595,34 +9475,34 @@
         <v>43439</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="116"/>
-      <c r="D40" s="116"/>
-      <c r="F40" s="116"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="116"/>
-      <c r="D41" s="116"/>
-      <c r="F41" s="116"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="116"/>
-      <c r="D42" s="116"/>
-      <c r="F42" s="116"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="116"/>
-      <c r="D43" s="116"/>
-      <c r="F43" s="116"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F44" s="115"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F45" s="115"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F46" s="115"/>
+    <row r="40" spans="1:7">
+      <c r="B40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="F40" s="60"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="B41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="F41" s="60"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="B42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="F42" s="60"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="B43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="F43" s="60"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="F44" s="59"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="F45" s="59"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="F46" s="59"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -9633,6 +9513,12 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="18">
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="A17:A21"/>
@@ -9645,12 +9531,6 @@
     <mergeCell ref="B26:B30"/>
     <mergeCell ref="A31:A35"/>
     <mergeCell ref="B31:B35"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
@@ -9658,7 +9538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:M56"/>
   <sheetViews>
@@ -9666,61 +9546,61 @@
       <selection sqref="A1:M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="94" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="82"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="86"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="88"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="96"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="99"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="102"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="22" t="s">
         <v>142</v>
       </c>
@@ -9736,18 +9616,18 @@
       <c r="E4" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="89" t="s">
+      <c r="F4" s="103" t="s">
         <v>146</v>
       </c>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="90"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="104"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="24"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -9764,28 +9644,28 @@
       <c r="L5" s="26"/>
       <c r="M5" s="28"/>
     </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="91" t="s">
+    <row r="6" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A6" s="105" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="93"/>
-    </row>
-    <row r="7" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="94">
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="107"/>
+    </row>
+    <row r="7" spans="1:13" ht="25.5">
+      <c r="A7" s="108">
         <v>1</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="82" t="s">
         <v>377</v>
       </c>
       <c r="C7" s="29" t="s">
@@ -9810,9 +9690,9 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="95"/>
-      <c r="B8" s="97"/>
+    <row r="8" spans="1:13" ht="38.25">
+      <c r="A8" s="109"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="29" t="s">
         <v>379</v>
       </c>
@@ -9835,9 +9715,9 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="95"/>
-      <c r="B9" s="97"/>
+    <row r="9" spans="1:13" ht="38.25">
+      <c r="A9" s="109"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="29" t="s">
         <v>380</v>
       </c>
@@ -9860,9 +9740,9 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="96"/>
-      <c r="B10" s="97"/>
+    <row r="10" spans="1:13" ht="26.25" thickBot="1">
+      <c r="A10" s="110"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="29" t="s">
         <v>381</v>
       </c>
@@ -9885,11 +9765,11 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="76">
+    <row r="11" spans="1:13" ht="25.5">
+      <c r="A11" s="87">
         <v>2</v>
       </c>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="86" t="s">
         <v>247</v>
       </c>
       <c r="C11" s="57" t="s">
@@ -9914,9 +9794,9 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="77"/>
-      <c r="B12" s="79"/>
+    <row r="12" spans="1:13" ht="38.25">
+      <c r="A12" s="88"/>
+      <c r="B12" s="86"/>
       <c r="C12" s="57" t="s">
         <v>379</v>
       </c>
@@ -9939,9 +9819,9 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="77"/>
-      <c r="B13" s="79"/>
+    <row r="13" spans="1:13" ht="38.25">
+      <c r="A13" s="88"/>
+      <c r="B13" s="86"/>
       <c r="C13" s="57" t="s">
         <v>380</v>
       </c>
@@ -9964,9 +9844,9 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="78"/>
-      <c r="B14" s="79"/>
+    <row r="14" spans="1:13" ht="26.25" thickBot="1">
+      <c r="A14" s="89"/>
+      <c r="B14" s="86"/>
       <c r="C14" s="57" t="s">
         <v>381</v>
       </c>
@@ -9989,11 +9869,11 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="98">
+    <row r="15" spans="1:13" ht="25.5">
+      <c r="A15" s="93">
         <v>3</v>
       </c>
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="86" t="s">
         <v>260</v>
       </c>
       <c r="C15" s="57" t="s">
@@ -10018,9 +9898,9 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="77"/>
-      <c r="B16" s="79"/>
+    <row r="16" spans="1:13" ht="38.25">
+      <c r="A16" s="88"/>
+      <c r="B16" s="86"/>
       <c r="C16" s="57" t="s">
         <v>379</v>
       </c>
@@ -10043,9 +9923,9 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="77"/>
-      <c r="B17" s="79"/>
+    <row r="17" spans="1:13" ht="38.25">
+      <c r="A17" s="88"/>
+      <c r="B17" s="86"/>
       <c r="C17" s="57" t="s">
         <v>380</v>
       </c>
@@ -10068,9 +9948,9 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="78"/>
-      <c r="B18" s="79"/>
+    <row r="18" spans="1:13" ht="26.25" thickBot="1">
+      <c r="A18" s="89"/>
+      <c r="B18" s="86"/>
       <c r="C18" s="57" t="s">
         <v>381</v>
       </c>
@@ -10093,11 +9973,11 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="76">
+    <row r="19" spans="1:13">
+      <c r="A19" s="87">
         <v>4</v>
       </c>
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="86" t="s">
         <v>256</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -10122,9 +10002,9 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="77"/>
-      <c r="B20" s="79"/>
+    <row r="20" spans="1:13">
+      <c r="A20" s="88"/>
+      <c r="B20" s="86"/>
       <c r="C20" s="8" t="s">
         <v>43</v>
       </c>
@@ -10147,9 +10027,9 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="77"/>
-      <c r="B21" s="79"/>
+    <row r="21" spans="1:13">
+      <c r="A21" s="88"/>
+      <c r="B21" s="86"/>
       <c r="C21" s="8" t="s">
         <v>44</v>
       </c>
@@ -10172,9 +10052,9 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="78"/>
-      <c r="B22" s="79"/>
+    <row r="22" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A22" s="89"/>
+      <c r="B22" s="86"/>
       <c r="C22" s="8" t="s">
         <v>45</v>
       </c>
@@ -10197,11 +10077,11 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="99">
+    <row r="23" spans="1:13" ht="25.5">
+      <c r="A23" s="79">
         <v>5</v>
       </c>
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="86" t="s">
         <v>367</v>
       </c>
       <c r="C23" s="35" t="s">
@@ -10226,9 +10106,9 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="100"/>
-      <c r="B24" s="79"/>
+    <row r="24" spans="1:13" ht="25.5">
+      <c r="A24" s="80"/>
+      <c r="B24" s="86"/>
       <c r="C24" s="35" t="s">
         <v>383</v>
       </c>
@@ -10251,9 +10131,9 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="100"/>
-      <c r="B25" s="79"/>
+    <row r="25" spans="1:13" ht="38.25">
+      <c r="A25" s="80"/>
+      <c r="B25" s="86"/>
       <c r="C25" s="35" t="s">
         <v>385</v>
       </c>
@@ -10276,9 +10156,9 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="101"/>
-      <c r="B26" s="79"/>
+    <row r="26" spans="1:13" ht="26.25" thickBot="1">
+      <c r="A26" s="81"/>
+      <c r="B26" s="86"/>
       <c r="C26" s="35" t="s">
         <v>384</v>
       </c>
@@ -10301,11 +10181,11 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="99">
+    <row r="27" spans="1:13" ht="25.5">
+      <c r="A27" s="79">
         <v>6</v>
       </c>
-      <c r="B27" s="79" t="s">
+      <c r="B27" s="86" t="s">
         <v>265</v>
       </c>
       <c r="C27" s="58" t="s">
@@ -10330,9 +10210,9 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="100"/>
-      <c r="B28" s="79"/>
+    <row r="28" spans="1:13" ht="25.5">
+      <c r="A28" s="80"/>
+      <c r="B28" s="86"/>
       <c r="C28" s="58" t="s">
         <v>383</v>
       </c>
@@ -10355,9 +10235,9 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="100"/>
-      <c r="B29" s="79"/>
+    <row r="29" spans="1:13" ht="38.25">
+      <c r="A29" s="80"/>
+      <c r="B29" s="86"/>
       <c r="C29" s="58" t="s">
         <v>385</v>
       </c>
@@ -10380,9 +10260,9 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="101"/>
-      <c r="B30" s="79"/>
+    <row r="30" spans="1:13" ht="26.25" thickBot="1">
+      <c r="A30" s="81"/>
+      <c r="B30" s="86"/>
       <c r="C30" s="58" t="s">
         <v>384</v>
       </c>
@@ -10405,11 +10285,11 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="76">
+    <row r="31" spans="1:13" ht="25.5">
+      <c r="A31" s="87">
         <v>7</v>
       </c>
-      <c r="B31" s="105" t="s">
+      <c r="B31" s="90" t="s">
         <v>271</v>
       </c>
       <c r="C31" s="58" t="s">
@@ -10434,9 +10314,9 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="77"/>
-      <c r="B32" s="106"/>
+    <row r="32" spans="1:13" ht="25.5">
+      <c r="A32" s="88"/>
+      <c r="B32" s="91"/>
       <c r="C32" s="58" t="s">
         <v>383</v>
       </c>
@@ -10459,9 +10339,9 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="77"/>
-      <c r="B33" s="106"/>
+    <row r="33" spans="1:13" ht="38.25">
+      <c r="A33" s="88"/>
+      <c r="B33" s="91"/>
       <c r="C33" s="58" t="s">
         <v>385</v>
       </c>
@@ -10484,9 +10364,9 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="78"/>
-      <c r="B34" s="107"/>
+    <row r="34" spans="1:13" ht="26.25" thickBot="1">
+      <c r="A34" s="89"/>
+      <c r="B34" s="92"/>
       <c r="C34" s="58" t="s">
         <v>384</v>
       </c>
@@ -10509,11 +10389,11 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="99">
+    <row r="35" spans="1:13" ht="25.5">
+      <c r="A35" s="79">
         <v>8</v>
       </c>
-      <c r="B35" s="79" t="s">
+      <c r="B35" s="86" t="s">
         <v>279</v>
       </c>
       <c r="C35" s="58" t="s">
@@ -10538,9 +10418,9 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="100"/>
-      <c r="B36" s="79"/>
+    <row r="36" spans="1:13" ht="25.5">
+      <c r="A36" s="80"/>
+      <c r="B36" s="86"/>
       <c r="C36" s="58" t="s">
         <v>383</v>
       </c>
@@ -10563,9 +10443,9 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="100"/>
-      <c r="B37" s="79"/>
+    <row r="37" spans="1:13" ht="38.25">
+      <c r="A37" s="80"/>
+      <c r="B37" s="86"/>
       <c r="C37" s="58" t="s">
         <v>385</v>
       </c>
@@ -10588,9 +10468,9 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="101"/>
-      <c r="B38" s="79"/>
+    <row r="38" spans="1:13" ht="26.25" thickBot="1">
+      <c r="A38" s="81"/>
+      <c r="B38" s="86"/>
       <c r="C38" s="58" t="s">
         <v>384</v>
       </c>
@@ -10613,11 +10493,11 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="99">
+    <row r="39" spans="1:13" ht="25.5">
+      <c r="A39" s="79">
         <v>9</v>
       </c>
-      <c r="B39" s="97" t="s">
+      <c r="B39" s="82" t="s">
         <v>230</v>
       </c>
       <c r="C39" s="58" t="s">
@@ -10642,9 +10522,9 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="100"/>
-      <c r="B40" s="97"/>
+    <row r="40" spans="1:13" ht="25.5">
+      <c r="A40" s="80"/>
+      <c r="B40" s="82"/>
       <c r="C40" s="58" t="s">
         <v>383</v>
       </c>
@@ -10667,9 +10547,9 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="100"/>
-      <c r="B41" s="97"/>
+    <row r="41" spans="1:13" ht="38.25">
+      <c r="A41" s="80"/>
+      <c r="B41" s="82"/>
       <c r="C41" s="58" t="s">
         <v>385</v>
       </c>
@@ -10692,9 +10572,9 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="101"/>
-      <c r="B42" s="97"/>
+    <row r="42" spans="1:13" ht="26.25" thickBot="1">
+      <c r="A42" s="81"/>
+      <c r="B42" s="82"/>
       <c r="C42" s="58" t="s">
         <v>384</v>
       </c>
@@ -10717,11 +10597,11 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="97">
+    <row r="43" spans="1:13" ht="25.5">
+      <c r="A43" s="82">
         <v>10</v>
       </c>
-      <c r="B43" s="102" t="s">
+      <c r="B43" s="83" t="s">
         <v>234</v>
       </c>
       <c r="C43" s="58" t="s">
@@ -10746,9 +10626,9 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="97"/>
-      <c r="B44" s="103"/>
+    <row r="44" spans="1:13" ht="25.5">
+      <c r="A44" s="82"/>
+      <c r="B44" s="84"/>
       <c r="C44" s="58" t="s">
         <v>383</v>
       </c>
@@ -10771,9 +10651,9 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="97"/>
-      <c r="B45" s="103"/>
+    <row r="45" spans="1:13" ht="38.25">
+      <c r="A45" s="82"/>
+      <c r="B45" s="84"/>
       <c r="C45" s="58" t="s">
         <v>385</v>
       </c>
@@ -10796,9 +10676,9 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="97"/>
-      <c r="B46" s="104"/>
+    <row r="46" spans="1:13" ht="25.5">
+      <c r="A46" s="82"/>
+      <c r="B46" s="85"/>
       <c r="C46" s="58" t="s">
         <v>384</v>
       </c>
@@ -10821,61 +10701,61 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="15.75">
       <c r="B47" s="39"/>
       <c r="C47" s="39"/>
-      <c r="F47" s="117"/>
-      <c r="I47" s="117"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F47" s="61"/>
+      <c r="I47" s="61"/>
+    </row>
+    <row r="48" spans="1:13">
       <c r="B48" s="40" t="s">
         <v>320</v>
       </c>
       <c r="C48" s="40" t="s">
         <v>358</v>
       </c>
-      <c r="F48" s="117"/>
-      <c r="I48" s="117"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F48" s="61"/>
+      <c r="I48" s="61"/>
+    </row>
+    <row r="49" spans="2:9">
       <c r="B49" s="40" t="s">
         <v>321</v>
       </c>
       <c r="C49" s="40" t="s">
         <v>327</v>
       </c>
-      <c r="I49" s="117"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I49" s="61"/>
+    </row>
+    <row r="50" spans="2:9">
       <c r="B50" s="40"/>
       <c r="C50" s="40"/>
-      <c r="I50" s="117"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I50" s="61"/>
+    </row>
+    <row r="51" spans="2:9">
       <c r="B51" s="40"/>
       <c r="C51" s="40"/>
-      <c r="I51" s="117"/>
-    </row>
-    <row r="52" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I51" s="61"/>
+    </row>
+    <row r="52" spans="2:9" ht="15.75">
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
-      <c r="I52" s="117"/>
-    </row>
-    <row r="53" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I52" s="61"/>
+    </row>
+    <row r="53" spans="2:9" ht="15.75">
       <c r="B53" s="40" t="s">
         <v>184</v>
       </c>
       <c r="C53" s="39"/>
     </row>
-    <row r="54" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="15.75">
       <c r="B54" s="39"/>
       <c r="C54" s="39"/>
     </row>
-    <row r="55" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="15.75">
       <c r="B55" s="40"/>
       <c r="C55" s="39"/>
     </row>
-    <row r="56" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" ht="15.75">
       <c r="B56" s="40" t="s">
         <v>185</v>
       </c>
@@ -10889,6 +10769,19 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="23">
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A1:M3"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="B39:B42"/>
     <mergeCell ref="A43:A46"/>
@@ -10899,34 +10792,21 @@
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="A1:M3"/>
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="A6:M6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:T24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -10936,26 +10816,26 @@
     <col min="6" max="6" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" s="21"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" s="21"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+    <row r="5" spans="1:20">
+      <c r="A5" s="117" t="s">
         <v>199</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="21"/>
     </row>
-    <row r="7" spans="1:20" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="42" customHeight="1">
       <c r="A7" s="42" t="s">
         <v>138</v>
       </c>
@@ -10966,133 +10846,133 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" s="41">
         <v>43003</v>
       </c>
       <c r="B8" s="48">
-        <v>177</v>
+        <v>20</v>
       </c>
       <c r="C8" s="48">
-        <v>177</v>
-      </c>
-      <c r="E8" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="111" t="s">
         <v>139</v>
       </c>
-      <c r="F8" s="108"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F8" s="111"/>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="41">
         <v>43006</v>
       </c>
       <c r="B9" s="48">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="C9" s="48">
-        <v>177</v>
-      </c>
-      <c r="E9" s="108"/>
-      <c r="F9" s="108"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="41">
         <v>43010</v>
       </c>
       <c r="B10" s="48">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C10" s="48">
-        <v>177</v>
-      </c>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="41">
         <v>43013</v>
       </c>
       <c r="B11" s="48">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="C11" s="48">
         <v>177</v>
       </c>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="41">
         <v>43015</v>
       </c>
       <c r="B12" s="48">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C12" s="48">
         <v>177</v>
       </c>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="41">
         <v>43017</v>
       </c>
       <c r="B13" s="48">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C13" s="48">
         <v>177</v>
       </c>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="41"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
       <c r="T14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="45"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="46"/>
-      <c r="I20" s="109" t="s">
+      <c r="I20" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="J20" s="109"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="109"/>
-      <c r="M20" s="109"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J20" s="112"/>
+      <c r="K20" s="112"/>
+      <c r="L20" s="112"/>
+      <c r="M20" s="112"/>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="45"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="46"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="45"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="46"/>
     </row>
   </sheetData>
@@ -11115,7 +10995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet9">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -11125,7 +11005,7 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -11136,18 +11016,18 @@
     <col min="7" max="7" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:7" ht="25.5">
+      <c r="A1" s="75" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-    </row>
-    <row r="3" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+    </row>
+    <row r="3" spans="1:7" ht="57" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -11170,7 +11050,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -11179,326 +11059,326 @@
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="71" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="69"/>
-      <c r="B6" s="111"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="78"/>
+      <c r="B6" s="114"/>
       <c r="C6" s="20"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="11"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="69"/>
-      <c r="B7" s="112"/>
+    <row r="7" spans="1:7">
+      <c r="A7" s="78"/>
+      <c r="B7" s="115"/>
       <c r="C7" s="20"/>
       <c r="D7" s="14"/>
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="69"/>
-      <c r="B8" s="113"/>
+    <row r="8" spans="1:7">
+      <c r="A8" s="78"/>
+      <c r="B8" s="116"/>
       <c r="C8" s="20"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="11"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="69"/>
-      <c r="B9" s="61"/>
+    <row r="9" spans="1:7">
+      <c r="A9" s="78"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="20"/>
       <c r="D9" s="8"/>
       <c r="E9" s="10"/>
       <c r="F9" s="11"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="69"/>
-      <c r="B10" s="62"/>
+    <row r="10" spans="1:7">
+      <c r="A10" s="78"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="20"/>
       <c r="D10" s="8"/>
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="69"/>
-      <c r="B11" s="62"/>
+    <row r="11" spans="1:7">
+      <c r="A11" s="78"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="20"/>
       <c r="D11" s="8"/>
       <c r="E11" s="10"/>
       <c r="F11" s="11"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="69"/>
-      <c r="B12" s="62"/>
+    <row r="12" spans="1:7">
+      <c r="A12" s="78"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="20"/>
       <c r="D12" s="8"/>
       <c r="E12" s="10"/>
       <c r="F12" s="11"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="69"/>
-      <c r="B13" s="62"/>
+    <row r="13" spans="1:7">
+      <c r="A13" s="78"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="20"/>
       <c r="D13" s="8"/>
       <c r="E13" s="10"/>
       <c r="F13" s="11"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="69"/>
-      <c r="B14" s="63"/>
+    <row r="14" spans="1:7">
+      <c r="A14" s="78"/>
+      <c r="B14" s="69"/>
       <c r="C14" s="20"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="11"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="69"/>
-      <c r="B15" s="64"/>
+    <row r="15" spans="1:7">
+      <c r="A15" s="78"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="20"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="11"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="69"/>
-      <c r="B16" s="64"/>
+    <row r="16" spans="1:7">
+      <c r="A16" s="78"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="20"/>
       <c r="D16" s="12"/>
       <c r="E16" s="10"/>
       <c r="F16" s="11"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
-      <c r="B17" s="65"/>
+    <row r="17" spans="1:7">
+      <c r="A17" s="78"/>
+      <c r="B17" s="77"/>
       <c r="C17" s="20"/>
       <c r="D17" s="8"/>
       <c r="E17" s="10"/>
       <c r="F17" s="11"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
-      <c r="B18" s="61"/>
+    <row r="18" spans="1:7">
+      <c r="A18" s="78"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="20"/>
       <c r="D18" s="8"/>
       <c r="E18" s="10"/>
       <c r="F18" s="11"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="69"/>
-      <c r="B19" s="62"/>
+    <row r="19" spans="1:7">
+      <c r="A19" s="78"/>
+      <c r="B19" s="67"/>
       <c r="C19" s="20"/>
       <c r="D19" s="8"/>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="69"/>
-      <c r="B20" s="62"/>
+    <row r="20" spans="1:7">
+      <c r="A20" s="78"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="20"/>
       <c r="D20" s="8"/>
       <c r="E20" s="10"/>
       <c r="F20" s="11"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
-      <c r="B21" s="62"/>
+    <row r="21" spans="1:7">
+      <c r="A21" s="78"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="20"/>
       <c r="D21" s="8"/>
       <c r="E21" s="10"/>
       <c r="F21" s="11"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="69"/>
-      <c r="B22" s="62"/>
+    <row r="22" spans="1:7">
+      <c r="A22" s="78"/>
+      <c r="B22" s="67"/>
       <c r="C22" s="20"/>
       <c r="D22" s="8"/>
       <c r="E22" s="10"/>
       <c r="F22" s="11"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="69"/>
-      <c r="B23" s="63"/>
+    <row r="23" spans="1:7">
+      <c r="A23" s="78"/>
+      <c r="B23" s="69"/>
       <c r="C23" s="20"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="69"/>
-      <c r="B24" s="64"/>
+    <row r="24" spans="1:7">
+      <c r="A24" s="78"/>
+      <c r="B24" s="70"/>
       <c r="C24" s="20"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="69"/>
-      <c r="B25" s="64"/>
+    <row r="25" spans="1:7">
+      <c r="A25" s="78"/>
+      <c r="B25" s="70"/>
       <c r="C25" s="20"/>
       <c r="D25" s="12"/>
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="69"/>
-      <c r="B26" s="65"/>
+    <row r="26" spans="1:7">
+      <c r="A26" s="78"/>
+      <c r="B26" s="77"/>
       <c r="C26" s="20"/>
       <c r="D26" s="8"/>
       <c r="E26" s="10"/>
       <c r="F26" s="11"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="69"/>
-      <c r="B27" s="61"/>
+    <row r="27" spans="1:7">
+      <c r="A27" s="78"/>
+      <c r="B27" s="66"/>
       <c r="C27" s="20"/>
       <c r="D27" s="8"/>
       <c r="E27" s="10"/>
       <c r="F27" s="11"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="69"/>
-      <c r="B28" s="62"/>
+    <row r="28" spans="1:7">
+      <c r="A28" s="78"/>
+      <c r="B28" s="67"/>
       <c r="C28" s="20"/>
       <c r="D28" s="8"/>
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="69"/>
-      <c r="B29" s="62"/>
+    <row r="29" spans="1:7">
+      <c r="A29" s="78"/>
+      <c r="B29" s="67"/>
       <c r="C29" s="20"/>
       <c r="D29" s="8"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="69"/>
-      <c r="B30" s="62"/>
+    <row r="30" spans="1:7">
+      <c r="A30" s="78"/>
+      <c r="B30" s="67"/>
       <c r="C30" s="20"/>
       <c r="D30" s="8"/>
       <c r="E30" s="10"/>
       <c r="F30" s="11"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="69"/>
-      <c r="B31" s="62"/>
+    <row r="31" spans="1:7">
+      <c r="A31" s="78"/>
+      <c r="B31" s="67"/>
       <c r="C31" s="20"/>
       <c r="D31" s="8"/>
       <c r="E31" s="10"/>
       <c r="F31" s="11"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="69"/>
-      <c r="B32" s="61"/>
+    <row r="32" spans="1:7">
+      <c r="A32" s="78"/>
+      <c r="B32" s="66"/>
       <c r="C32" s="20"/>
       <c r="D32" s="8"/>
       <c r="E32" s="10"/>
       <c r="F32" s="11"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="69"/>
-      <c r="B33" s="62"/>
+    <row r="33" spans="1:7">
+      <c r="A33" s="78"/>
+      <c r="B33" s="67"/>
       <c r="C33" s="20"/>
       <c r="D33" s="8"/>
       <c r="E33" s="10"/>
       <c r="F33" s="11"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="69"/>
-      <c r="B34" s="62"/>
+    <row r="34" spans="1:7">
+      <c r="A34" s="78"/>
+      <c r="B34" s="67"/>
       <c r="C34" s="20"/>
       <c r="D34" s="8"/>
       <c r="E34" s="10"/>
       <c r="F34" s="11"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="69"/>
-      <c r="B35" s="62"/>
+    <row r="35" spans="1:7">
+      <c r="A35" s="78"/>
+      <c r="B35" s="67"/>
       <c r="C35" s="20"/>
       <c r="D35" s="8"/>
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="69"/>
-      <c r="B36" s="62"/>
+    <row r="36" spans="1:7">
+      <c r="A36" s="78"/>
+      <c r="B36" s="67"/>
       <c r="C36" s="20"/>
       <c r="D36" s="8"/>
       <c r="E36" s="10"/>
       <c r="F36" s="11"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="69"/>
-      <c r="B37" s="63"/>
+    <row r="37" spans="1:7">
+      <c r="A37" s="78"/>
+      <c r="B37" s="69"/>
       <c r="C37" s="20"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="11"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="69"/>
-      <c r="B38" s="64"/>
+    <row r="38" spans="1:7">
+      <c r="A38" s="78"/>
+      <c r="B38" s="70"/>
       <c r="C38" s="20"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="11"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="69"/>
-      <c r="B39" s="64"/>
+    <row r="39" spans="1:7">
+      <c r="A39" s="78"/>
+      <c r="B39" s="70"/>
       <c r="C39" s="20"/>
       <c r="D39" s="12"/>
       <c r="E39" s="10"/>
       <c r="F39" s="11"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="69"/>
-      <c r="B40" s="65"/>
+    <row r="40" spans="1:7">
+      <c r="A40" s="78"/>
+      <c r="B40" s="77"/>
       <c r="C40" s="20"/>
       <c r="D40" s="8"/>
       <c r="E40" s="10"/>
@@ -11514,24 +11394,24 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="18">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="B27:B31"/>
     <mergeCell ref="A32:A36"/>
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="A37:A40"/>
     <mergeCell ref="B37:B40"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
@@ -11539,7 +11419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:M56"/>
   <sheetViews>
@@ -11547,61 +11427,61 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="82"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="86"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="88"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="96"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="99"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="102"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="22" t="s">
         <v>142</v>
       </c>
@@ -11617,18 +11497,18 @@
       <c r="E4" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="89" t="s">
+      <c r="F4" s="103" t="s">
         <v>146</v>
       </c>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="90"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="104"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="24"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -11645,26 +11525,26 @@
       <c r="L5" s="26"/>
       <c r="M5" s="28"/>
     </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="91" t="s">
+    <row r="6" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A6" s="105" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="93"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="94"/>
-      <c r="B7" s="97"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="107"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="108"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
       <c r="E7" s="1"/>
@@ -11677,9 +11557,9 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="95"/>
-      <c r="B8" s="97"/>
+    <row r="8" spans="1:13">
+      <c r="A8" s="109"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
       <c r="E8" s="1"/>
@@ -11692,9 +11572,9 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="95"/>
-      <c r="B9" s="97"/>
+    <row r="9" spans="1:13">
+      <c r="A9" s="109"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" s="1"/>
@@ -11707,9 +11587,9 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="96"/>
-      <c r="B10" s="97"/>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A10" s="110"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
       <c r="E10" s="1"/>
@@ -11722,9 +11602,9 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="76"/>
-      <c r="B11" s="79"/>
+    <row r="11" spans="1:13">
+      <c r="A11" s="87"/>
+      <c r="B11" s="86"/>
       <c r="C11" s="35"/>
       <c r="D11" s="29"/>
       <c r="E11" s="1"/>
@@ -11737,9 +11617,9 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="77"/>
-      <c r="B12" s="79"/>
+    <row r="12" spans="1:13">
+      <c r="A12" s="88"/>
+      <c r="B12" s="86"/>
       <c r="C12" s="35"/>
       <c r="D12" s="29"/>
       <c r="E12" s="1"/>
@@ -11752,9 +11632,9 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="77"/>
-      <c r="B13" s="79"/>
+    <row r="13" spans="1:13">
+      <c r="A13" s="88"/>
+      <c r="B13" s="86"/>
       <c r="C13" s="35"/>
       <c r="D13" s="29"/>
       <c r="E13" s="1"/>
@@ -11767,9 +11647,9 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="78"/>
-      <c r="B14" s="79"/>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A14" s="89"/>
+      <c r="B14" s="86"/>
       <c r="C14" s="35"/>
       <c r="D14" s="29"/>
       <c r="E14" s="1"/>
@@ -11782,9 +11662,9 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="98"/>
-      <c r="B15" s="79"/>
+    <row r="15" spans="1:13">
+      <c r="A15" s="93"/>
+      <c r="B15" s="86"/>
       <c r="C15" s="35"/>
       <c r="D15" s="29"/>
       <c r="E15" s="1"/>
@@ -11797,9 +11677,9 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="77"/>
-      <c r="B16" s="79"/>
+    <row r="16" spans="1:13">
+      <c r="A16" s="88"/>
+      <c r="B16" s="86"/>
       <c r="C16" s="35"/>
       <c r="D16" s="29"/>
       <c r="E16" s="1"/>
@@ -11812,9 +11692,9 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="77"/>
-      <c r="B17" s="79"/>
+    <row r="17" spans="1:13">
+      <c r="A17" s="88"/>
+      <c r="B17" s="86"/>
       <c r="C17" s="35"/>
       <c r="D17" s="29"/>
       <c r="E17" s="1"/>
@@ -11827,9 +11707,9 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="78"/>
-      <c r="B18" s="79"/>
+    <row r="18" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A18" s="89"/>
+      <c r="B18" s="86"/>
       <c r="C18" s="35"/>
       <c r="D18" s="29"/>
       <c r="E18" s="1"/>
@@ -11842,9 +11722,9 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="76"/>
-      <c r="B19" s="79"/>
+    <row r="19" spans="1:13">
+      <c r="A19" s="87"/>
+      <c r="B19" s="86"/>
       <c r="C19" s="35"/>
       <c r="D19" s="29"/>
       <c r="E19" s="1"/>
@@ -11857,9 +11737,9 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="77"/>
-      <c r="B20" s="79"/>
+    <row r="20" spans="1:13">
+      <c r="A20" s="88"/>
+      <c r="B20" s="86"/>
       <c r="C20" s="35"/>
       <c r="D20" s="29"/>
       <c r="E20" s="1"/>
@@ -11872,9 +11752,9 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="77"/>
-      <c r="B21" s="79"/>
+    <row r="21" spans="1:13">
+      <c r="A21" s="88"/>
+      <c r="B21" s="86"/>
       <c r="C21" s="35"/>
       <c r="D21" s="29"/>
       <c r="E21" s="1"/>
@@ -11887,9 +11767,9 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="78"/>
-      <c r="B22" s="79"/>
+    <row r="22" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A22" s="89"/>
+      <c r="B22" s="86"/>
       <c r="C22" s="35"/>
       <c r="D22" s="29"/>
       <c r="E22" s="1"/>
@@ -11902,9 +11782,9 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="99"/>
-      <c r="B23" s="79"/>
+    <row r="23" spans="1:13">
+      <c r="A23" s="79"/>
+      <c r="B23" s="86"/>
       <c r="C23" s="35"/>
       <c r="D23" s="29"/>
       <c r="E23" s="1"/>
@@ -11917,9 +11797,9 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="100"/>
-      <c r="B24" s="79"/>
+    <row r="24" spans="1:13">
+      <c r="A24" s="80"/>
+      <c r="B24" s="86"/>
       <c r="C24" s="35"/>
       <c r="D24" s="29"/>
       <c r="E24" s="1"/>
@@ -11932,9 +11812,9 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="100"/>
-      <c r="B25" s="79"/>
+    <row r="25" spans="1:13">
+      <c r="A25" s="80"/>
+      <c r="B25" s="86"/>
       <c r="C25" s="35"/>
       <c r="D25" s="29"/>
       <c r="E25" s="1"/>
@@ -11947,9 +11827,9 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="101"/>
-      <c r="B26" s="79"/>
+    <row r="26" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A26" s="81"/>
+      <c r="B26" s="86"/>
       <c r="C26" s="35"/>
       <c r="D26" s="29"/>
       <c r="E26" s="1"/>
@@ -11962,9 +11842,9 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="99"/>
-      <c r="B27" s="79"/>
+    <row r="27" spans="1:13">
+      <c r="A27" s="79"/>
+      <c r="B27" s="86"/>
       <c r="C27" s="35"/>
       <c r="D27" s="29"/>
       <c r="E27" s="1"/>
@@ -11977,9 +11857,9 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="100"/>
-      <c r="B28" s="79"/>
+    <row r="28" spans="1:13">
+      <c r="A28" s="80"/>
+      <c r="B28" s="86"/>
       <c r="C28" s="35"/>
       <c r="D28" s="29"/>
       <c r="E28" s="1"/>
@@ -11992,9 +11872,9 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="100"/>
-      <c r="B29" s="79"/>
+    <row r="29" spans="1:13">
+      <c r="A29" s="80"/>
+      <c r="B29" s="86"/>
       <c r="C29" s="35"/>
       <c r="D29" s="29"/>
       <c r="E29" s="1"/>
@@ -12007,9 +11887,9 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="101"/>
-      <c r="B30" s="79"/>
+    <row r="30" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A30" s="81"/>
+      <c r="B30" s="86"/>
       <c r="C30" s="35"/>
       <c r="D30" s="29"/>
       <c r="E30" s="1"/>
@@ -12022,9 +11902,9 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="76"/>
-      <c r="B31" s="105"/>
+    <row r="31" spans="1:13">
+      <c r="A31" s="87"/>
+      <c r="B31" s="90"/>
       <c r="C31" s="35"/>
       <c r="D31" s="29"/>
       <c r="E31" s="1"/>
@@ -12037,9 +11917,9 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="77"/>
-      <c r="B32" s="106"/>
+    <row r="32" spans="1:13">
+      <c r="A32" s="88"/>
+      <c r="B32" s="91"/>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
       <c r="E32" s="1"/>
@@ -12052,9 +11932,9 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="77"/>
-      <c r="B33" s="106"/>
+    <row r="33" spans="1:13">
+      <c r="A33" s="88"/>
+      <c r="B33" s="91"/>
       <c r="C33" s="35"/>
       <c r="D33" s="29"/>
       <c r="E33" s="1"/>
@@ -12067,9 +11947,9 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="78"/>
-      <c r="B34" s="107"/>
+    <row r="34" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A34" s="89"/>
+      <c r="B34" s="92"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
       <c r="E34" s="1"/>
@@ -12082,9 +11962,9 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="99"/>
-      <c r="B35" s="79"/>
+    <row r="35" spans="1:13">
+      <c r="A35" s="79"/>
+      <c r="B35" s="86"/>
       <c r="C35" s="35"/>
       <c r="D35" s="29"/>
       <c r="E35" s="1"/>
@@ -12097,9 +11977,9 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="100"/>
-      <c r="B36" s="79"/>
+    <row r="36" spans="1:13">
+      <c r="A36" s="80"/>
+      <c r="B36" s="86"/>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
       <c r="E36" s="1"/>
@@ -12112,9 +11992,9 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="100"/>
-      <c r="B37" s="79"/>
+    <row r="37" spans="1:13">
+      <c r="A37" s="80"/>
+      <c r="B37" s="86"/>
       <c r="C37" s="35"/>
       <c r="D37" s="29"/>
       <c r="E37" s="1"/>
@@ -12127,9 +12007,9 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="101"/>
-      <c r="B38" s="79"/>
+    <row r="38" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A38" s="81"/>
+      <c r="B38" s="86"/>
       <c r="C38" s="35"/>
       <c r="D38" s="29"/>
       <c r="E38" s="1"/>
@@ -12142,9 +12022,9 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="99"/>
-      <c r="B39" s="97"/>
+    <row r="39" spans="1:13">
+      <c r="A39" s="79"/>
+      <c r="B39" s="82"/>
       <c r="C39" s="35"/>
       <c r="D39" s="29"/>
       <c r="E39" s="1"/>
@@ -12157,9 +12037,9 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="100"/>
-      <c r="B40" s="97"/>
+    <row r="40" spans="1:13">
+      <c r="A40" s="80"/>
+      <c r="B40" s="82"/>
       <c r="C40" s="35"/>
       <c r="D40" s="29"/>
       <c r="E40" s="1"/>
@@ -12172,9 +12052,9 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="100"/>
-      <c r="B41" s="97"/>
+    <row r="41" spans="1:13">
+      <c r="A41" s="80"/>
+      <c r="B41" s="82"/>
       <c r="C41" s="35"/>
       <c r="D41" s="29"/>
       <c r="E41" s="1"/>
@@ -12187,9 +12067,9 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="101"/>
-      <c r="B42" s="97"/>
+    <row r="42" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A42" s="81"/>
+      <c r="B42" s="82"/>
       <c r="C42" s="29"/>
       <c r="D42" s="29"/>
       <c r="E42" s="1"/>
@@ -12202,9 +12082,9 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="97"/>
-      <c r="B43" s="102"/>
+    <row r="43" spans="1:13">
+      <c r="A43" s="82"/>
+      <c r="B43" s="83"/>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
       <c r="E43" s="1"/>
@@ -12217,9 +12097,9 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="97"/>
-      <c r="B44" s="103"/>
+    <row r="44" spans="1:13">
+      <c r="A44" s="82"/>
+      <c r="B44" s="84"/>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
       <c r="E44" s="1"/>
@@ -12232,9 +12112,9 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="97"/>
-      <c r="B45" s="103"/>
+    <row r="45" spans="1:13">
+      <c r="A45" s="82"/>
+      <c r="B45" s="84"/>
       <c r="C45" s="29"/>
       <c r="D45" s="29"/>
       <c r="E45" s="1"/>
@@ -12247,9 +12127,9 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="97"/>
-      <c r="B46" s="104"/>
+    <row r="46" spans="1:13">
+      <c r="A46" s="82"/>
+      <c r="B46" s="85"/>
       <c r="C46" s="29"/>
       <c r="D46" s="29"/>
       <c r="E46" s="1"/>
@@ -12262,11 +12142,11 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="15.75">
       <c r="B47" s="39"/>
       <c r="C47" s="39"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13">
       <c r="B48" s="40" t="s">
         <v>149</v>
       </c>
@@ -12274,7 +12154,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3">
       <c r="B49" s="40" t="s">
         <v>150</v>
       </c>
@@ -12282,7 +12162,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3">
       <c r="B50" s="40" t="s">
         <v>151</v>
       </c>
@@ -12290,7 +12170,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3">
       <c r="B51" s="40" t="s">
         <v>152</v>
       </c>
@@ -12298,25 +12178,25 @@
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" ht="15.75">
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
     </row>
-    <row r="53" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" ht="15.75">
       <c r="B53" s="40" t="s">
         <v>184</v>
       </c>
       <c r="C53" s="39"/>
     </row>
-    <row r="54" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" ht="15.75">
       <c r="B54" s="39"/>
       <c r="C54" s="39"/>
     </row>
-    <row r="55" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" ht="15.75">
       <c r="B55" s="40"/>
       <c r="C55" s="39"/>
     </row>
-    <row r="56" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" ht="15.75">
       <c r="B56" s="40" t="s">
         <v>185</v>
       </c>
@@ -12330,6 +12210,19 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="23">
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A1:M3"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="B39:B42"/>
     <mergeCell ref="A43:A46"/>
@@ -12340,19 +12233,6 @@
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="A1:M3"/>
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="A6:M6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
